--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q383"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>1</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>1</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>2</v>
       </c>
+      <c r="R302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>2</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,63 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B384" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="C384" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="D384" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="E384" t="n">
+        <v>315.7000122070312</v>
+      </c>
+      <c r="F384" t="n">
+        <v>315.7000122070312</v>
+      </c>
+      <c r="G384" t="n">
+        <v>297583</v>
+      </c>
+      <c r="H384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I384" t="n">
+        <v>6</v>
+      </c>
+      <c r="J384" t="n">
+        <v>3</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>23</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -21973,7 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
-      <c r="R384" t="inlineStr"/>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q388"/>
+  <dimension ref="A1:R393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>1</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>1</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>2</v>
       </c>
+      <c r="R302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>2</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,279 @@
       <c r="Q388" t="n">
         <v>2</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B389" t="n">
+        <v>294.1000061035156</v>
+      </c>
+      <c r="C389" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="D389" t="n">
+        <v>292.1499938964844</v>
+      </c>
+      <c r="E389" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="F389" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1211003</v>
+      </c>
+      <c r="H389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I389" t="n">
+        <v>6</v>
+      </c>
+      <c r="J389" t="n">
+        <v>10</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>24</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B390" t="n">
+        <v>295</v>
+      </c>
+      <c r="C390" t="n">
+        <v>315.3999938964844</v>
+      </c>
+      <c r="D390" t="n">
+        <v>295</v>
+      </c>
+      <c r="E390" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="F390" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1600662</v>
+      </c>
+      <c r="H390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I390" t="n">
+        <v>6</v>
+      </c>
+      <c r="J390" t="n">
+        <v>11</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>24</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B391" t="n">
+        <v>310.9500122070312</v>
+      </c>
+      <c r="C391" t="n">
+        <v>317.8999938964844</v>
+      </c>
+      <c r="D391" t="n">
+        <v>310.8500061035156</v>
+      </c>
+      <c r="E391" t="n">
+        <v>316</v>
+      </c>
+      <c r="F391" t="n">
+        <v>316</v>
+      </c>
+      <c r="G391" t="n">
+        <v>832732</v>
+      </c>
+      <c r="H391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I391" t="n">
+        <v>6</v>
+      </c>
+      <c r="J391" t="n">
+        <v>12</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>24</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B392" t="n">
+        <v>317.6000061035156</v>
+      </c>
+      <c r="C392" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="D392" t="n">
+        <v>313.4500122070312</v>
+      </c>
+      <c r="E392" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="F392" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1172344</v>
+      </c>
+      <c r="H392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I392" t="n">
+        <v>6</v>
+      </c>
+      <c r="J392" t="n">
+        <v>13</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>24</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B393" t="n">
+        <v>321</v>
+      </c>
+      <c r="C393" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="D393" t="n">
+        <v>321</v>
+      </c>
+      <c r="E393" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="F393" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="G393" t="n">
+        <v>8904932</v>
+      </c>
+      <c r="H393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I393" t="n">
+        <v>6</v>
+      </c>
+      <c r="J393" t="n">
+        <v>14</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>24</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -22253,7 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
-      <c r="R389" t="inlineStr"/>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -22307,7 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
-      <c r="R390" t="inlineStr"/>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -22361,7 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
-      <c r="R391" t="inlineStr"/>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -22415,7 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
-      <c r="R392" t="inlineStr"/>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -22469,7 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
-      <c r="R393" t="inlineStr"/>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R393"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22481,6 +22481,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B394" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="C394" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="D394" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="E394" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="F394" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="G394" t="n">
+        <v>6549828</v>
+      </c>
+      <c r="H394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I394" t="n">
+        <v>6</v>
+      </c>
+      <c r="J394" t="n">
+        <v>18</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>25</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22021,7 +22021,7 @@
         <v>23</v>
       </c>
       <c r="O385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P385" t="n">
         <v>0</v>
@@ -22533,7 +22533,63 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
-      <c r="R394" t="inlineStr"/>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B395" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="C395" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="D395" t="n">
+        <v>340.5499877929688</v>
+      </c>
+      <c r="E395" t="n">
+        <v>354.3999938964844</v>
+      </c>
+      <c r="F395" t="n">
+        <v>354.3999938964844</v>
+      </c>
+      <c r="G395" t="n">
+        <v>5286220</v>
+      </c>
+      <c r="H395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I395" t="n">
+        <v>6</v>
+      </c>
+      <c r="J395" t="n">
+        <v>19</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>25</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R395"/>
+  <dimension ref="A1:R402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22589,7 +22589,387 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
-      <c r="R395" t="inlineStr"/>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B396" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="C396" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>349.3999938964844</v>
+      </c>
+      <c r="E396" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="F396" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1817601</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I396" t="n">
+        <v>6</v>
+      </c>
+      <c r="J396" t="n">
+        <v>20</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>25</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B397" t="n">
+        <v>358</v>
+      </c>
+      <c r="C397" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="D397" t="n">
+        <v>349.1499938964844</v>
+      </c>
+      <c r="E397" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="F397" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="G397" t="n">
+        <v>3130799</v>
+      </c>
+      <c r="H397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I397" t="n">
+        <v>6</v>
+      </c>
+      <c r="J397" t="n">
+        <v>21</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>25</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B398" t="n">
+        <v>355</v>
+      </c>
+      <c r="C398" t="n">
+        <v>384</v>
+      </c>
+      <c r="D398" t="n">
+        <v>353.9500122070312</v>
+      </c>
+      <c r="E398" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F398" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="G398" t="n">
+        <v>5050314</v>
+      </c>
+      <c r="H398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I398" t="n">
+        <v>6</v>
+      </c>
+      <c r="J398" t="n">
+        <v>24</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>26</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B399" t="n">
+        <v>377</v>
+      </c>
+      <c r="C399" t="n">
+        <v>388.3999938964844</v>
+      </c>
+      <c r="D399" t="n">
+        <v>370.25</v>
+      </c>
+      <c r="E399" t="n">
+        <v>373</v>
+      </c>
+      <c r="F399" t="n">
+        <v>373</v>
+      </c>
+      <c r="G399" t="n">
+        <v>2699875</v>
+      </c>
+      <c r="H399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I399" t="n">
+        <v>6</v>
+      </c>
+      <c r="J399" t="n">
+        <v>25</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>26</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B400" t="n">
+        <v>376</v>
+      </c>
+      <c r="C400" t="n">
+        <v>378.4500122070312</v>
+      </c>
+      <c r="D400" t="n">
+        <v>365.6000061035156</v>
+      </c>
+      <c r="E400" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="F400" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1258034</v>
+      </c>
+      <c r="H400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I400" t="n">
+        <v>6</v>
+      </c>
+      <c r="J400" t="n">
+        <v>26</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>26</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B401" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="C401" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="D401" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="E401" t="n">
+        <v>357.3500061035156</v>
+      </c>
+      <c r="F401" t="n">
+        <v>357.3500061035156</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1390470</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I401" t="n">
+        <v>6</v>
+      </c>
+      <c r="J401" t="n">
+        <v>27</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="n">
+        <v>26</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B402" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="C402" t="n">
+        <v>367</v>
+      </c>
+      <c r="D402" t="n">
+        <v>357.1499938964844</v>
+      </c>
+      <c r="E402" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="F402" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1248003</v>
+      </c>
+      <c r="H402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6</v>
+      </c>
+      <c r="J402" t="n">
+        <v>28</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>26</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R402" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -22645,7 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
-      <c r="R396" t="inlineStr"/>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -22699,7 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
-      <c r="R397" t="inlineStr"/>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -22753,7 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
-      <c r="R398" t="inlineStr"/>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -22807,7 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
-      <c r="R399" t="inlineStr"/>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -22861,7 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
-      <c r="R400" t="inlineStr"/>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -22915,7 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
-      <c r="R401" t="inlineStr"/>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -22969,7 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
-      <c r="R402" t="inlineStr"/>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22985,6 +22985,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B403" t="n">
+        <v>365</v>
+      </c>
+      <c r="C403" t="n">
+        <v>384.75</v>
+      </c>
+      <c r="D403" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="E403" t="n">
+        <v>379.3999938964844</v>
+      </c>
+      <c r="F403" t="n">
+        <v>379.3999938964844</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2314326</v>
+      </c>
+      <c r="H403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I403" t="n">
+        <v>7</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>27</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B404" t="n">
+        <v>415</v>
+      </c>
+      <c r="C404" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="D404" t="n">
+        <v>410</v>
+      </c>
+      <c r="E404" t="n">
+        <v>430.1499938964844</v>
+      </c>
+      <c r="F404" t="n">
+        <v>430.1499938964844</v>
+      </c>
+      <c r="G404" t="n">
+        <v>21490411</v>
+      </c>
+      <c r="H404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I404" t="n">
+        <v>7</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>27</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B405" t="n">
+        <v>435</v>
+      </c>
+      <c r="C405" t="n">
+        <v>451.8999938964844</v>
+      </c>
+      <c r="D405" t="n">
+        <v>433.75</v>
+      </c>
+      <c r="E405" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="F405" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="G405" t="n">
+        <v>8122545</v>
+      </c>
+      <c r="H405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I405" t="n">
+        <v>7</v>
+      </c>
+      <c r="J405" t="n">
+        <v>3</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>27</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B406" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="C406" t="n">
+        <v>450</v>
+      </c>
+      <c r="D406" t="n">
+        <v>433.25</v>
+      </c>
+      <c r="E406" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="F406" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2881389</v>
+      </c>
+      <c r="H406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I406" t="n">
+        <v>7</v>
+      </c>
+      <c r="J406" t="n">
+        <v>4</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>27</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B407" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="C407" t="n">
+        <v>444.3999938964844</v>
+      </c>
+      <c r="D407" t="n">
+        <v>434</v>
+      </c>
+      <c r="E407" t="n">
+        <v>437.1000061035156</v>
+      </c>
+      <c r="F407" t="n">
+        <v>437.1000061035156</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1583190</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I407" t="n">
+        <v>7</v>
+      </c>
+      <c r="J407" t="n">
+        <v>5</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>27</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R407"/>
+  <dimension ref="A1:R416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23037,7 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
-      <c r="R403" t="inlineStr"/>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -23091,7 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
-      <c r="R404" t="inlineStr"/>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -23137,7 +23141,7 @@
         <v>27</v>
       </c>
       <c r="O405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P405" t="n">
         <v>0</v>
@@ -23145,7 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
-      <c r="R405" t="inlineStr"/>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -23199,7 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
-      <c r="R406" t="inlineStr"/>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -23253,7 +23261,495 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
-      <c r="R407" t="inlineStr"/>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B408" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="C408" t="n">
+        <v>445.4500122070312</v>
+      </c>
+      <c r="D408" t="n">
+        <v>420</v>
+      </c>
+      <c r="E408" t="n">
+        <v>427.2999877929688</v>
+      </c>
+      <c r="F408" t="n">
+        <v>427.2999877929688</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1374418</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I408" t="n">
+        <v>7</v>
+      </c>
+      <c r="J408" t="n">
+        <v>8</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>28</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B409" t="n">
+        <v>428.0499877929688</v>
+      </c>
+      <c r="C409" t="n">
+        <v>434</v>
+      </c>
+      <c r="D409" t="n">
+        <v>417.1000061035156</v>
+      </c>
+      <c r="E409" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="F409" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="G409" t="n">
+        <v>724558</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7</v>
+      </c>
+      <c r="J409" t="n">
+        <v>9</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>28</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B410" t="n">
+        <v>423</v>
+      </c>
+      <c r="C410" t="n">
+        <v>438.7999877929688</v>
+      </c>
+      <c r="D410" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="E410" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="F410" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1632147</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I410" t="n">
+        <v>7</v>
+      </c>
+      <c r="J410" t="n">
+        <v>10</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>28</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B411" t="n">
+        <v>430</v>
+      </c>
+      <c r="C411" t="n">
+        <v>441.2999877929688</v>
+      </c>
+      <c r="D411" t="n">
+        <v>420.5499877929688</v>
+      </c>
+      <c r="E411" t="n">
+        <v>434.25</v>
+      </c>
+      <c r="F411" t="n">
+        <v>434.25</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1120659</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I411" t="n">
+        <v>7</v>
+      </c>
+      <c r="J411" t="n">
+        <v>11</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>28</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B412" t="n">
+        <v>436</v>
+      </c>
+      <c r="C412" t="n">
+        <v>438.75</v>
+      </c>
+      <c r="D412" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="E412" t="n">
+        <v>411.75</v>
+      </c>
+      <c r="F412" t="n">
+        <v>411.75</v>
+      </c>
+      <c r="G412" t="n">
+        <v>2160516</v>
+      </c>
+      <c r="H412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I412" t="n">
+        <v>7</v>
+      </c>
+      <c r="J412" t="n">
+        <v>12</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>28</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B413" t="n">
+        <v>416.5</v>
+      </c>
+      <c r="C413" t="n">
+        <v>438</v>
+      </c>
+      <c r="D413" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="E413" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="F413" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="G413" t="n">
+        <v>1767661</v>
+      </c>
+      <c r="H413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I413" t="n">
+        <v>7</v>
+      </c>
+      <c r="J413" t="n">
+        <v>15</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>29</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B414" t="n">
+        <v>413</v>
+      </c>
+      <c r="C414" t="n">
+        <v>419.7000122070312</v>
+      </c>
+      <c r="D414" t="n">
+        <v>400.2999877929688</v>
+      </c>
+      <c r="E414" t="n">
+        <v>405.6499938964844</v>
+      </c>
+      <c r="F414" t="n">
+        <v>405.6499938964844</v>
+      </c>
+      <c r="G414" t="n">
+        <v>560343</v>
+      </c>
+      <c r="H414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I414" t="n">
+        <v>7</v>
+      </c>
+      <c r="J414" t="n">
+        <v>16</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>29</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B415" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="C415" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="D415" t="n">
+        <v>390</v>
+      </c>
+      <c r="E415" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="F415" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="G415" t="n">
+        <v>522848</v>
+      </c>
+      <c r="H415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I415" t="n">
+        <v>7</v>
+      </c>
+      <c r="J415" t="n">
+        <v>18</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N415" t="n">
+        <v>29</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B416" t="n">
+        <v>380.2999877929688</v>
+      </c>
+      <c r="C416" t="n">
+        <v>397</v>
+      </c>
+      <c r="D416" t="n">
+        <v>374.7999877929688</v>
+      </c>
+      <c r="E416" t="n">
+        <v>382.6499938964844</v>
+      </c>
+      <c r="F416" t="n">
+        <v>382.6499938964844</v>
+      </c>
+      <c r="G416" t="n">
+        <v>495950</v>
+      </c>
+      <c r="H416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I416" t="n">
+        <v>7</v>
+      </c>
+      <c r="J416" t="n">
+        <v>19</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>29</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R416"/>
+  <dimension ref="A1:R426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23317,7 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
-      <c r="R408" t="inlineStr"/>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -23371,7 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
-      <c r="R409" t="inlineStr"/>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -23425,7 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
-      <c r="R410" t="inlineStr"/>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -23479,7 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
-      <c r="R411" t="inlineStr"/>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -23525,7 +23533,7 @@
         <v>28</v>
       </c>
       <c r="O412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P412" t="n">
         <v>0</v>
@@ -23533,7 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
-      <c r="R412" t="inlineStr"/>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -23587,7 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
-      <c r="R413" t="inlineStr"/>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -23641,7 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
-      <c r="R414" t="inlineStr"/>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -23695,7 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
-      <c r="R415" t="inlineStr"/>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -23749,7 +23765,549 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
-      <c r="R416" t="inlineStr"/>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B417" t="n">
+        <v>380</v>
+      </c>
+      <c r="C417" t="n">
+        <v>397</v>
+      </c>
+      <c r="D417" t="n">
+        <v>369</v>
+      </c>
+      <c r="E417" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="F417" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="G417" t="n">
+        <v>505817</v>
+      </c>
+      <c r="H417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J417" t="n">
+        <v>22</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N417" t="n">
+        <v>30</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B418" t="n">
+        <v>396.7000122070312</v>
+      </c>
+      <c r="C418" t="n">
+        <v>398.8999938964844</v>
+      </c>
+      <c r="D418" t="n">
+        <v>369.6000061035156</v>
+      </c>
+      <c r="E418" t="n">
+        <v>377.6000061035156</v>
+      </c>
+      <c r="F418" t="n">
+        <v>377.6000061035156</v>
+      </c>
+      <c r="G418" t="n">
+        <v>518097</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I418" t="n">
+        <v>7</v>
+      </c>
+      <c r="J418" t="n">
+        <v>23</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N418" t="n">
+        <v>30</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B419" t="n">
+        <v>385</v>
+      </c>
+      <c r="C419" t="n">
+        <v>394</v>
+      </c>
+      <c r="D419" t="n">
+        <v>363.7999877929688</v>
+      </c>
+      <c r="E419" t="n">
+        <v>387.1499938964844</v>
+      </c>
+      <c r="F419" t="n">
+        <v>387.1499938964844</v>
+      </c>
+      <c r="G419" t="n">
+        <v>327569</v>
+      </c>
+      <c r="H419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I419" t="n">
+        <v>7</v>
+      </c>
+      <c r="J419" t="n">
+        <v>24</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="n">
+        <v>30</v>
+      </c>
+      <c r="O419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B420" t="n">
+        <v>379.7000122070312</v>
+      </c>
+      <c r="C420" t="n">
+        <v>387</v>
+      </c>
+      <c r="D420" t="n">
+        <v>375</v>
+      </c>
+      <c r="E420" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="F420" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="G420" t="n">
+        <v>177351</v>
+      </c>
+      <c r="H420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I420" t="n">
+        <v>7</v>
+      </c>
+      <c r="J420" t="n">
+        <v>25</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N420" t="n">
+        <v>30</v>
+      </c>
+      <c r="O420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B421" t="n">
+        <v>386.9500122070312</v>
+      </c>
+      <c r="C421" t="n">
+        <v>397.25</v>
+      </c>
+      <c r="D421" t="n">
+        <v>383</v>
+      </c>
+      <c r="E421" t="n">
+        <v>392.1499938964844</v>
+      </c>
+      <c r="F421" t="n">
+        <v>392.1499938964844</v>
+      </c>
+      <c r="G421" t="n">
+        <v>296601</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J421" t="n">
+        <v>26</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N421" t="n">
+        <v>30</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B422" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="C422" t="n">
+        <v>397.75</v>
+      </c>
+      <c r="D422" t="n">
+        <v>382.1000061035156</v>
+      </c>
+      <c r="E422" t="n">
+        <v>384.7000122070312</v>
+      </c>
+      <c r="F422" t="n">
+        <v>384.7000122070312</v>
+      </c>
+      <c r="G422" t="n">
+        <v>241071</v>
+      </c>
+      <c r="H422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I422" t="n">
+        <v>7</v>
+      </c>
+      <c r="J422" t="n">
+        <v>29</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>31</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B423" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="C423" t="n">
+        <v>389</v>
+      </c>
+      <c r="D423" t="n">
+        <v>380</v>
+      </c>
+      <c r="E423" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="F423" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="G423" t="n">
+        <v>175394</v>
+      </c>
+      <c r="H423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I423" t="n">
+        <v>7</v>
+      </c>
+      <c r="J423" t="n">
+        <v>30</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>31</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B424" t="n">
+        <v>385</v>
+      </c>
+      <c r="C424" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="D424" t="n">
+        <v>380</v>
+      </c>
+      <c r="E424" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="F424" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="G424" t="n">
+        <v>153865</v>
+      </c>
+      <c r="H424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I424" t="n">
+        <v>7</v>
+      </c>
+      <c r="J424" t="n">
+        <v>31</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>31</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B425" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="C425" t="n">
+        <v>388</v>
+      </c>
+      <c r="D425" t="n">
+        <v>375</v>
+      </c>
+      <c r="E425" t="n">
+        <v>376.8999938964844</v>
+      </c>
+      <c r="F425" t="n">
+        <v>376.8999938964844</v>
+      </c>
+      <c r="G425" t="n">
+        <v>237935</v>
+      </c>
+      <c r="H425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I425" t="n">
+        <v>8</v>
+      </c>
+      <c r="J425" t="n">
+        <v>1</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N425" t="n">
+        <v>31</v>
+      </c>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B426" t="n">
+        <v>368</v>
+      </c>
+      <c r="C426" t="n">
+        <v>385.1499938964844</v>
+      </c>
+      <c r="D426" t="n">
+        <v>361.7000122070312</v>
+      </c>
+      <c r="E426" t="n">
+        <v>376.0499877929688</v>
+      </c>
+      <c r="F426" t="n">
+        <v>376.0499877929688</v>
+      </c>
+      <c r="G426" t="n">
+        <v>308682</v>
+      </c>
+      <c r="H426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I426" t="n">
+        <v>8</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" t="n">
+        <v>31</v>
+      </c>
+      <c r="O426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R426" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R426"/>
+  <dimension ref="A1:R431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23821,7 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
-      <c r="R417" t="inlineStr"/>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -23875,7 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
-      <c r="R418" t="inlineStr"/>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -23929,7 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
-      <c r="R419" t="inlineStr"/>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -23983,7 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
-      <c r="R420" t="inlineStr"/>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -24037,7 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
-      <c r="R421" t="inlineStr"/>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -24091,7 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
-      <c r="R422" t="inlineStr"/>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -24145,7 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -24199,7 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
-      <c r="R424" t="inlineStr"/>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -24253,7 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
-      <c r="R425" t="inlineStr"/>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -24307,7 +24325,279 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
-      <c r="R426" t="inlineStr"/>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B427" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="C427" t="n">
+        <v>370.0499877929688</v>
+      </c>
+      <c r="D427" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="E427" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="F427" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="G427" t="n">
+        <v>334099</v>
+      </c>
+      <c r="H427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I427" t="n">
+        <v>8</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" t="n">
+        <v>32</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B428" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="C428" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="D428" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="E428" t="n">
+        <v>346.0499877929688</v>
+      </c>
+      <c r="F428" t="n">
+        <v>346.0499877929688</v>
+      </c>
+      <c r="G428" t="n">
+        <v>274775</v>
+      </c>
+      <c r="H428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I428" t="n">
+        <v>8</v>
+      </c>
+      <c r="J428" t="n">
+        <v>6</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N428" t="n">
+        <v>32</v>
+      </c>
+      <c r="O428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B429" t="n">
+        <v>351</v>
+      </c>
+      <c r="C429" t="n">
+        <v>363.3500061035156</v>
+      </c>
+      <c r="D429" t="n">
+        <v>339</v>
+      </c>
+      <c r="E429" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="F429" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="G429" t="n">
+        <v>341135</v>
+      </c>
+      <c r="H429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I429" t="n">
+        <v>8</v>
+      </c>
+      <c r="J429" t="n">
+        <v>7</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>32</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B430" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="C430" t="n">
+        <v>372</v>
+      </c>
+      <c r="D430" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="E430" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="F430" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="G430" t="n">
+        <v>193540</v>
+      </c>
+      <c r="H430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I430" t="n">
+        <v>8</v>
+      </c>
+      <c r="J430" t="n">
+        <v>8</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N430" t="n">
+        <v>32</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B431" t="n">
+        <v>370</v>
+      </c>
+      <c r="C431" t="n">
+        <v>370</v>
+      </c>
+      <c r="D431" t="n">
+        <v>355</v>
+      </c>
+      <c r="E431" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="F431" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="G431" t="n">
+        <v>180474</v>
+      </c>
+      <c r="H431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I431" t="n">
+        <v>8</v>
+      </c>
+      <c r="J431" t="n">
+        <v>9</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" t="n">
+        <v>32</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R431" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R431"/>
+  <dimension ref="A1:R435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24381,7 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
-      <c r="R427" t="inlineStr"/>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -24435,7 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
-      <c r="R428" t="inlineStr"/>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -24489,7 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
-      <c r="R429" t="inlineStr"/>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -24543,7 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
-      <c r="R430" t="inlineStr"/>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -24597,7 +24605,225 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
-      <c r="R431" t="inlineStr"/>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B432" t="n">
+        <v>357.8500061035156</v>
+      </c>
+      <c r="C432" t="n">
+        <v>370</v>
+      </c>
+      <c r="D432" t="n">
+        <v>350.1000061035156</v>
+      </c>
+      <c r="E432" t="n">
+        <v>366.4500122070312</v>
+      </c>
+      <c r="F432" t="n">
+        <v>366.4500122070312</v>
+      </c>
+      <c r="G432" t="n">
+        <v>344769</v>
+      </c>
+      <c r="H432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I432" t="n">
+        <v>8</v>
+      </c>
+      <c r="J432" t="n">
+        <v>12</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" t="n">
+        <v>33</v>
+      </c>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B433" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="C433" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="D433" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="E433" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="F433" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="G433" t="n">
+        <v>164208</v>
+      </c>
+      <c r="H433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I433" t="n">
+        <v>8</v>
+      </c>
+      <c r="J433" t="n">
+        <v>13</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" t="n">
+        <v>33</v>
+      </c>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B434" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="C434" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="D434" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="E434" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="F434" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="G434" t="n">
+        <v>226356</v>
+      </c>
+      <c r="H434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I434" t="n">
+        <v>8</v>
+      </c>
+      <c r="J434" t="n">
+        <v>14</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" t="n">
+        <v>33</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B435" t="n">
+        <v>323</v>
+      </c>
+      <c r="C435" t="n">
+        <v>330.6499938964844</v>
+      </c>
+      <c r="D435" t="n">
+        <v>314.25</v>
+      </c>
+      <c r="E435" t="n">
+        <v>321.8999938964844</v>
+      </c>
+      <c r="F435" t="n">
+        <v>321.8999938964844</v>
+      </c>
+      <c r="G435" t="n">
+        <v>971712</v>
+      </c>
+      <c r="H435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I435" t="n">
+        <v>8</v>
+      </c>
+      <c r="J435" t="n">
+        <v>16</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N435" t="n">
+        <v>33</v>
+      </c>
+      <c r="O435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R435" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R435"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24661,7 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
-      <c r="R432" t="inlineStr"/>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -24715,7 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
-      <c r="R433" t="inlineStr"/>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -24769,7 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
-      <c r="R434" t="inlineStr"/>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -24823,7 +24829,279 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
-      <c r="R435" t="inlineStr"/>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B436" t="n">
+        <v>321.8999938964844</v>
+      </c>
+      <c r="C436" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D436" t="n">
+        <v>321.8999938964844</v>
+      </c>
+      <c r="E436" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="F436" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="G436" t="n">
+        <v>3981276</v>
+      </c>
+      <c r="H436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I436" t="n">
+        <v>8</v>
+      </c>
+      <c r="J436" t="n">
+        <v>19</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N436" t="n">
+        <v>34</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B437" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="C437" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D437" t="n">
+        <v>345</v>
+      </c>
+      <c r="E437" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="F437" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2056925</v>
+      </c>
+      <c r="H437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I437" t="n">
+        <v>8</v>
+      </c>
+      <c r="J437" t="n">
+        <v>20</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N437" t="n">
+        <v>34</v>
+      </c>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B438" t="n">
+        <v>354</v>
+      </c>
+      <c r="C438" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D438" t="n">
+        <v>342</v>
+      </c>
+      <c r="E438" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="F438" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="G438" t="n">
+        <v>731832</v>
+      </c>
+      <c r="H438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I438" t="n">
+        <v>8</v>
+      </c>
+      <c r="J438" t="n">
+        <v>21</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N438" t="n">
+        <v>34</v>
+      </c>
+      <c r="O438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B439" t="n">
+        <v>350</v>
+      </c>
+      <c r="C439" t="n">
+        <v>354.8500061035156</v>
+      </c>
+      <c r="D439" t="n">
+        <v>343.1499938964844</v>
+      </c>
+      <c r="E439" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="F439" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="G439" t="n">
+        <v>382443</v>
+      </c>
+      <c r="H439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I439" t="n">
+        <v>8</v>
+      </c>
+      <c r="J439" t="n">
+        <v>22</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N439" t="n">
+        <v>34</v>
+      </c>
+      <c r="O439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B440" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="C440" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="D440" t="n">
+        <v>335</v>
+      </c>
+      <c r="E440" t="n">
+        <v>340.2999877929688</v>
+      </c>
+      <c r="F440" t="n">
+        <v>340.2999877929688</v>
+      </c>
+      <c r="G440" t="n">
+        <v>465445</v>
+      </c>
+      <c r="H440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I440" t="n">
+        <v>8</v>
+      </c>
+      <c r="J440" t="n">
+        <v>23</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>34</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24821,7 +24821,7 @@
         <v>33</v>
       </c>
       <c r="O435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P435" t="n">
         <v>0</v>
@@ -24885,7 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
-      <c r="R436" t="inlineStr"/>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -24939,7 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
-      <c r="R437" t="inlineStr"/>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -24993,7 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
-      <c r="R438" t="inlineStr"/>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -25047,7 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
-      <c r="R439" t="inlineStr"/>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -25101,7 +25109,279 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
-      <c r="R440" t="inlineStr"/>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B441" t="n">
+        <v>346.6000061035156</v>
+      </c>
+      <c r="C441" t="n">
+        <v>346.6000061035156</v>
+      </c>
+      <c r="D441" t="n">
+        <v>328</v>
+      </c>
+      <c r="E441" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="F441" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="G441" t="n">
+        <v>545144</v>
+      </c>
+      <c r="H441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I441" t="n">
+        <v>8</v>
+      </c>
+      <c r="J441" t="n">
+        <v>26</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>35</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B442" t="n">
+        <v>337</v>
+      </c>
+      <c r="C442" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D442" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E442" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="F442" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="G442" t="n">
+        <v>403082</v>
+      </c>
+      <c r="H442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I442" t="n">
+        <v>8</v>
+      </c>
+      <c r="J442" t="n">
+        <v>27</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>35</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B443" t="n">
+        <v>332.4500122070312</v>
+      </c>
+      <c r="C443" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="D443" t="n">
+        <v>328</v>
+      </c>
+      <c r="E443" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="F443" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="G443" t="n">
+        <v>643314</v>
+      </c>
+      <c r="H443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I443" t="n">
+        <v>8</v>
+      </c>
+      <c r="J443" t="n">
+        <v>28</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N443" t="n">
+        <v>35</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B444" t="n">
+        <v>344</v>
+      </c>
+      <c r="C444" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="D444" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="E444" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="F444" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="G444" t="n">
+        <v>481381</v>
+      </c>
+      <c r="H444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I444" t="n">
+        <v>8</v>
+      </c>
+      <c r="J444" t="n">
+        <v>29</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" t="n">
+        <v>35</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B445" t="n">
+        <v>340</v>
+      </c>
+      <c r="C445" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="D445" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="E445" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="F445" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="G445" t="n">
+        <v>303585</v>
+      </c>
+      <c r="H445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I445" t="n">
+        <v>8</v>
+      </c>
+      <c r="J445" t="n">
+        <v>30</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N445" t="n">
+        <v>35</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R445"/>
+  <dimension ref="A1:R450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25165,7 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
-      <c r="R441" t="inlineStr"/>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -25219,7 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
-      <c r="R442" t="inlineStr"/>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -25273,7 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
-      <c r="R443" t="inlineStr"/>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -25327,7 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
-      <c r="R444" t="inlineStr"/>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -25381,7 +25389,279 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
-      <c r="R445" t="inlineStr"/>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B446" t="n">
+        <v>348</v>
+      </c>
+      <c r="C446" t="n">
+        <v>348</v>
+      </c>
+      <c r="D446" t="n">
+        <v>334</v>
+      </c>
+      <c r="E446" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="F446" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="G446" t="n">
+        <v>230338</v>
+      </c>
+      <c r="H446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I446" t="n">
+        <v>9</v>
+      </c>
+      <c r="J446" t="n">
+        <v>2</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>36</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B447" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="C447" t="n">
+        <v>341.9500122070312</v>
+      </c>
+      <c r="D447" t="n">
+        <v>333.8500061035156</v>
+      </c>
+      <c r="E447" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F447" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="G447" t="n">
+        <v>386459</v>
+      </c>
+      <c r="H447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I447" t="n">
+        <v>9</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>36</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B448" t="n">
+        <v>334</v>
+      </c>
+      <c r="C448" t="n">
+        <v>340</v>
+      </c>
+      <c r="D448" t="n">
+        <v>330</v>
+      </c>
+      <c r="E448" t="n">
+        <v>337</v>
+      </c>
+      <c r="F448" t="n">
+        <v>337</v>
+      </c>
+      <c r="G448" t="n">
+        <v>168545</v>
+      </c>
+      <c r="H448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I448" t="n">
+        <v>9</v>
+      </c>
+      <c r="J448" t="n">
+        <v>4</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>36</v>
+      </c>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B449" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="C449" t="n">
+        <v>340.1499938964844</v>
+      </c>
+      <c r="D449" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="E449" t="n">
+        <v>336.8999938964844</v>
+      </c>
+      <c r="F449" t="n">
+        <v>336.8999938964844</v>
+      </c>
+      <c r="G449" t="n">
+        <v>190024</v>
+      </c>
+      <c r="H449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I449" t="n">
+        <v>9</v>
+      </c>
+      <c r="J449" t="n">
+        <v>5</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" t="n">
+        <v>36</v>
+      </c>
+      <c r="O449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B450" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C450" t="n">
+        <v>340</v>
+      </c>
+      <c r="D450" t="n">
+        <v>332</v>
+      </c>
+      <c r="E450" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="F450" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="G450" t="n">
+        <v>235437</v>
+      </c>
+      <c r="H450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I450" t="n">
+        <v>9</v>
+      </c>
+      <c r="J450" t="n">
+        <v>6</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" t="n">
+        <v>36</v>
+      </c>
+      <c r="O450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R450"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25445,7 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
-      <c r="R446" t="inlineStr"/>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -25499,7 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
-      <c r="R447" t="inlineStr"/>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -25553,7 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
-      <c r="R448" t="inlineStr"/>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -25607,7 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
-      <c r="R449" t="inlineStr"/>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -25661,7 +25669,279 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
-      <c r="R450" t="inlineStr"/>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B451" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="C451" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="D451" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="E451" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="F451" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="G451" t="n">
+        <v>228767</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I451" t="n">
+        <v>9</v>
+      </c>
+      <c r="J451" t="n">
+        <v>9</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" t="n">
+        <v>37</v>
+      </c>
+      <c r="O451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B452" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="C452" t="n">
+        <v>337</v>
+      </c>
+      <c r="D452" t="n">
+        <v>327</v>
+      </c>
+      <c r="E452" t="n">
+        <v>330.6499938964844</v>
+      </c>
+      <c r="F452" t="n">
+        <v>330.6499938964844</v>
+      </c>
+      <c r="G452" t="n">
+        <v>221667</v>
+      </c>
+      <c r="H452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I452" t="n">
+        <v>9</v>
+      </c>
+      <c r="J452" t="n">
+        <v>10</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>37</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B453" t="n">
+        <v>330</v>
+      </c>
+      <c r="C453" t="n">
+        <v>334</v>
+      </c>
+      <c r="D453" t="n">
+        <v>325</v>
+      </c>
+      <c r="E453" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="F453" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="G453" t="n">
+        <v>158407</v>
+      </c>
+      <c r="H453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I453" t="n">
+        <v>9</v>
+      </c>
+      <c r="J453" t="n">
+        <v>11</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>37</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B454" t="n">
+        <v>331.7999877929688</v>
+      </c>
+      <c r="C454" t="n">
+        <v>333</v>
+      </c>
+      <c r="D454" t="n">
+        <v>327</v>
+      </c>
+      <c r="E454" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="F454" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="G454" t="n">
+        <v>137141</v>
+      </c>
+      <c r="H454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I454" t="n">
+        <v>9</v>
+      </c>
+      <c r="J454" t="n">
+        <v>12</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" t="n">
+        <v>37</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B455" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="C455" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D455" t="n">
+        <v>330</v>
+      </c>
+      <c r="E455" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="F455" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="G455" t="n">
+        <v>172791</v>
+      </c>
+      <c r="H455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I455" t="n">
+        <v>9</v>
+      </c>
+      <c r="J455" t="n">
+        <v>13</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>37</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25725,7 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
-      <c r="R451" t="inlineStr"/>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -25779,7 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
-      <c r="R452" t="inlineStr"/>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -25833,7 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
-      <c r="R453" t="inlineStr"/>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -25887,7 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
-      <c r="R454" t="inlineStr"/>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -25941,7 +25949,279 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
-      <c r="R455" t="inlineStr"/>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B456" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="C456" t="n">
+        <v>339</v>
+      </c>
+      <c r="D456" t="n">
+        <v>329</v>
+      </c>
+      <c r="E456" t="n">
+        <v>330.3999938964844</v>
+      </c>
+      <c r="F456" t="n">
+        <v>330.3999938964844</v>
+      </c>
+      <c r="G456" t="n">
+        <v>190961</v>
+      </c>
+      <c r="H456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I456" t="n">
+        <v>9</v>
+      </c>
+      <c r="J456" t="n">
+        <v>16</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" t="n">
+        <v>38</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B457" t="n">
+        <v>330</v>
+      </c>
+      <c r="C457" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="D457" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="E457" t="n">
+        <v>346.7999877929688</v>
+      </c>
+      <c r="F457" t="n">
+        <v>346.7999877929688</v>
+      </c>
+      <c r="G457" t="n">
+        <v>584603</v>
+      </c>
+      <c r="H457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I457" t="n">
+        <v>9</v>
+      </c>
+      <c r="J457" t="n">
+        <v>17</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" t="n">
+        <v>38</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B458" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="C458" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="D458" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="E458" t="n">
+        <v>338.7000122070312</v>
+      </c>
+      <c r="F458" t="n">
+        <v>338.7000122070312</v>
+      </c>
+      <c r="G458" t="n">
+        <v>368283</v>
+      </c>
+      <c r="H458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I458" t="n">
+        <v>9</v>
+      </c>
+      <c r="J458" t="n">
+        <v>18</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>38</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B459" t="n">
+        <v>338.7000122070312</v>
+      </c>
+      <c r="C459" t="n">
+        <v>355</v>
+      </c>
+      <c r="D459" t="n">
+        <v>336</v>
+      </c>
+      <c r="E459" t="n">
+        <v>345.3999938964844</v>
+      </c>
+      <c r="F459" t="n">
+        <v>345.3999938964844</v>
+      </c>
+      <c r="G459" t="n">
+        <v>484228</v>
+      </c>
+      <c r="H459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I459" t="n">
+        <v>9</v>
+      </c>
+      <c r="J459" t="n">
+        <v>19</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>38</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B460" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="C460" t="n">
+        <v>350</v>
+      </c>
+      <c r="D460" t="n">
+        <v>340.75</v>
+      </c>
+      <c r="E460" t="n">
+        <v>345.9500122070312</v>
+      </c>
+      <c r="F460" t="n">
+        <v>345.9500122070312</v>
+      </c>
+      <c r="G460" t="n">
+        <v>228568</v>
+      </c>
+      <c r="H460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I460" t="n">
+        <v>9</v>
+      </c>
+      <c r="J460" t="n">
+        <v>20</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N460" t="n">
+        <v>38</v>
+      </c>
+      <c r="O460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R460" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R460"/>
+  <dimension ref="A1:R465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26005,7 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
-      <c r="R456" t="inlineStr"/>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -26059,7 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
-      <c r="R457" t="inlineStr"/>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -26113,7 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
-      <c r="R458" t="inlineStr"/>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -26167,7 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
-      <c r="R459" t="inlineStr"/>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -26221,7 +26229,279 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
-      <c r="R460" t="inlineStr"/>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B461" t="n">
+        <v>350</v>
+      </c>
+      <c r="C461" t="n">
+        <v>350</v>
+      </c>
+      <c r="D461" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="E461" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="F461" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="G461" t="n">
+        <v>220640</v>
+      </c>
+      <c r="H461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I461" t="n">
+        <v>9</v>
+      </c>
+      <c r="J461" t="n">
+        <v>23</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N461" t="n">
+        <v>39</v>
+      </c>
+      <c r="O461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B462" t="n">
+        <v>346.0499877929688</v>
+      </c>
+      <c r="C462" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="D462" t="n">
+        <v>340.5499877929688</v>
+      </c>
+      <c r="E462" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="F462" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="G462" t="n">
+        <v>266840</v>
+      </c>
+      <c r="H462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I462" t="n">
+        <v>9</v>
+      </c>
+      <c r="J462" t="n">
+        <v>24</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>39</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B463" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="C463" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="D463" t="n">
+        <v>341</v>
+      </c>
+      <c r="E463" t="n">
+        <v>342.2000122070312</v>
+      </c>
+      <c r="F463" t="n">
+        <v>342.2000122070312</v>
+      </c>
+      <c r="G463" t="n">
+        <v>262103</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I463" t="n">
+        <v>9</v>
+      </c>
+      <c r="J463" t="n">
+        <v>25</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>39</v>
+      </c>
+      <c r="O463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B464" t="n">
+        <v>344</v>
+      </c>
+      <c r="C464" t="n">
+        <v>344.75</v>
+      </c>
+      <c r="D464" t="n">
+        <v>329</v>
+      </c>
+      <c r="E464" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="F464" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="G464" t="n">
+        <v>255987</v>
+      </c>
+      <c r="H464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I464" t="n">
+        <v>9</v>
+      </c>
+      <c r="J464" t="n">
+        <v>26</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>39</v>
+      </c>
+      <c r="O464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B465" t="n">
+        <v>336</v>
+      </c>
+      <c r="C465" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="D465" t="n">
+        <v>327</v>
+      </c>
+      <c r="E465" t="n">
+        <v>331.5499877929688</v>
+      </c>
+      <c r="F465" t="n">
+        <v>331.5499877929688</v>
+      </c>
+      <c r="G465" t="n">
+        <v>202776</v>
+      </c>
+      <c r="H465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I465" t="n">
+        <v>9</v>
+      </c>
+      <c r="J465" t="n">
+        <v>27</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N465" t="n">
+        <v>39</v>
+      </c>
+      <c r="O465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R465" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R465"/>
+  <dimension ref="A1:R469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26053,7 +26053,7 @@
         <v>38</v>
       </c>
       <c r="O457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P457" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>38</v>
       </c>
       <c r="O459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P459" t="n">
         <v>0</v>
@@ -26285,7 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
-      <c r="R461" t="inlineStr"/>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -26339,7 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
-      <c r="R462" t="inlineStr"/>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -26393,7 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
-      <c r="R463" t="inlineStr"/>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -26447,7 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
-      <c r="R464" t="inlineStr"/>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -26501,7 +26509,225 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
-      <c r="R465" t="inlineStr"/>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B466" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="C466" t="n">
+        <v>333.8999938964844</v>
+      </c>
+      <c r="D466" t="n">
+        <v>324.75</v>
+      </c>
+      <c r="E466" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="F466" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="G466" t="n">
+        <v>191551</v>
+      </c>
+      <c r="H466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I466" t="n">
+        <v>9</v>
+      </c>
+      <c r="J466" t="n">
+        <v>30</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N466" t="n">
+        <v>40</v>
+      </c>
+      <c r="O466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B467" t="n">
+        <v>328</v>
+      </c>
+      <c r="C467" t="n">
+        <v>333.8999938964844</v>
+      </c>
+      <c r="D467" t="n">
+        <v>327</v>
+      </c>
+      <c r="E467" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="F467" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="G467" t="n">
+        <v>133616</v>
+      </c>
+      <c r="H467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I467" t="n">
+        <v>10</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N467" t="n">
+        <v>40</v>
+      </c>
+      <c r="O467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B468" t="n">
+        <v>322.1499938964844</v>
+      </c>
+      <c r="C468" t="n">
+        <v>333</v>
+      </c>
+      <c r="D468" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="E468" t="n">
+        <v>323.3999938964844</v>
+      </c>
+      <c r="F468" t="n">
+        <v>323.3999938964844</v>
+      </c>
+      <c r="G468" t="n">
+        <v>183799</v>
+      </c>
+      <c r="H468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I468" t="n">
+        <v>10</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N468" t="n">
+        <v>40</v>
+      </c>
+      <c r="O468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>1</v>
+      </c>
+      <c r="R468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B469" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="C469" t="n">
+        <v>331</v>
+      </c>
+      <c r="D469" t="n">
+        <v>318</v>
+      </c>
+      <c r="E469" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="F469" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="G469" t="n">
+        <v>249969</v>
+      </c>
+      <c r="H469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I469" t="n">
+        <v>10</v>
+      </c>
+      <c r="J469" t="n">
+        <v>4</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>40</v>
+      </c>
+      <c r="O469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R469"/>
+  <dimension ref="A1:R474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26565,7 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
-      <c r="R466" t="inlineStr"/>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -26619,7 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
-      <c r="R467" t="inlineStr"/>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -26673,7 +26677,9 @@
       <c r="Q468" t="n">
         <v>1</v>
       </c>
-      <c r="R468" t="inlineStr"/>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -26727,7 +26733,279 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
-      <c r="R469" t="inlineStr"/>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B470" t="n">
+        <v>322</v>
+      </c>
+      <c r="C470" t="n">
+        <v>325.5499877929688</v>
+      </c>
+      <c r="D470" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="E470" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="F470" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="G470" t="n">
+        <v>231262</v>
+      </c>
+      <c r="H470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I470" t="n">
+        <v>10</v>
+      </c>
+      <c r="J470" t="n">
+        <v>7</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N470" t="n">
+        <v>41</v>
+      </c>
+      <c r="O470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B471" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="C471" t="n">
+        <v>321.2000122070312</v>
+      </c>
+      <c r="D471" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="E471" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="F471" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="G471" t="n">
+        <v>209883</v>
+      </c>
+      <c r="H471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I471" t="n">
+        <v>10</v>
+      </c>
+      <c r="J471" t="n">
+        <v>8</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N471" t="n">
+        <v>41</v>
+      </c>
+      <c r="O471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B472" t="n">
+        <v>326</v>
+      </c>
+      <c r="C472" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="D472" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="E472" t="n">
+        <v>323.75</v>
+      </c>
+      <c r="F472" t="n">
+        <v>323.75</v>
+      </c>
+      <c r="G472" t="n">
+        <v>159045</v>
+      </c>
+      <c r="H472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I472" t="n">
+        <v>10</v>
+      </c>
+      <c r="J472" t="n">
+        <v>9</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N472" t="n">
+        <v>41</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B473" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="C473" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="D473" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E473" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="F473" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="G473" t="n">
+        <v>151304</v>
+      </c>
+      <c r="H473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I473" t="n">
+        <v>10</v>
+      </c>
+      <c r="J473" t="n">
+        <v>10</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" t="n">
+        <v>41</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B474" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="C474" t="n">
+        <v>331</v>
+      </c>
+      <c r="D474" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="E474" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="F474" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="G474" t="n">
+        <v>106729</v>
+      </c>
+      <c r="H474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I474" t="n">
+        <v>10</v>
+      </c>
+      <c r="J474" t="n">
+        <v>11</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N474" t="n">
+        <v>41</v>
+      </c>
+      <c r="O474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R474" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R474"/>
+  <dimension ref="A1:R479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26789,7 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
-      <c r="R470" t="inlineStr"/>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -26843,7 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
-      <c r="R471" t="inlineStr"/>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -26897,7 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
-      <c r="R472" t="inlineStr"/>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -26951,7 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
-      <c r="R473" t="inlineStr"/>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -27005,7 +27013,279 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
-      <c r="R474" t="inlineStr"/>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B475" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="C475" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="D475" t="n">
+        <v>321.8500061035156</v>
+      </c>
+      <c r="E475" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="F475" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="G475" t="n">
+        <v>143057</v>
+      </c>
+      <c r="H475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I475" t="n">
+        <v>10</v>
+      </c>
+      <c r="J475" t="n">
+        <v>14</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" t="n">
+        <v>42</v>
+      </c>
+      <c r="O475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B476" t="n">
+        <v>324</v>
+      </c>
+      <c r="C476" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="D476" t="n">
+        <v>312.6499938964844</v>
+      </c>
+      <c r="E476" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="F476" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="G476" t="n">
+        <v>269499</v>
+      </c>
+      <c r="H476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I476" t="n">
+        <v>10</v>
+      </c>
+      <c r="J476" t="n">
+        <v>15</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" t="n">
+        <v>42</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B477" t="n">
+        <v>316.0499877929688</v>
+      </c>
+      <c r="C477" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="D477" t="n">
+        <v>315.7000122070312</v>
+      </c>
+      <c r="E477" t="n">
+        <v>317.5499877929688</v>
+      </c>
+      <c r="F477" t="n">
+        <v>317.5499877929688</v>
+      </c>
+      <c r="G477" t="n">
+        <v>176541</v>
+      </c>
+      <c r="H477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I477" t="n">
+        <v>10</v>
+      </c>
+      <c r="J477" t="n">
+        <v>16</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N477" t="n">
+        <v>42</v>
+      </c>
+      <c r="O477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B478" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="C478" t="n">
+        <v>324</v>
+      </c>
+      <c r="D478" t="n">
+        <v>310</v>
+      </c>
+      <c r="E478" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="F478" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="G478" t="n">
+        <v>208058</v>
+      </c>
+      <c r="H478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I478" t="n">
+        <v>10</v>
+      </c>
+      <c r="J478" t="n">
+        <v>17</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N478" t="n">
+        <v>42</v>
+      </c>
+      <c r="O478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B479" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="C479" t="n">
+        <v>320</v>
+      </c>
+      <c r="D479" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="E479" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="F479" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="G479" t="n">
+        <v>353949</v>
+      </c>
+      <c r="H479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I479" t="n">
+        <v>10</v>
+      </c>
+      <c r="J479" t="n">
+        <v>18</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="n">
+        <v>42</v>
+      </c>
+      <c r="O479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R479" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R479"/>
+  <dimension ref="A1:R484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27069,7 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
-      <c r="R475" t="inlineStr"/>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -27123,7 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
-      <c r="R476" t="inlineStr"/>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -27177,7 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
-      <c r="R477" t="inlineStr"/>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -27231,7 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
-      <c r="R478" t="inlineStr"/>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -27285,7 +27293,279 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
-      <c r="R479" t="inlineStr"/>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B480" t="n">
+        <v>309</v>
+      </c>
+      <c r="C480" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="D480" t="n">
+        <v>300</v>
+      </c>
+      <c r="E480" t="n">
+        <v>303.25</v>
+      </c>
+      <c r="F480" t="n">
+        <v>303.25</v>
+      </c>
+      <c r="G480" t="n">
+        <v>210677</v>
+      </c>
+      <c r="H480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I480" t="n">
+        <v>10</v>
+      </c>
+      <c r="J480" t="n">
+        <v>21</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" t="n">
+        <v>43</v>
+      </c>
+      <c r="O480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B481" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="C481" t="n">
+        <v>303.2000122070312</v>
+      </c>
+      <c r="D481" t="n">
+        <v>288.1000061035156</v>
+      </c>
+      <c r="E481" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="F481" t="n">
+        <v>288.75</v>
+      </c>
+      <c r="G481" t="n">
+        <v>306226</v>
+      </c>
+      <c r="H481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I481" t="n">
+        <v>10</v>
+      </c>
+      <c r="J481" t="n">
+        <v>22</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="n">
+        <v>43</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B482" t="n">
+        <v>285</v>
+      </c>
+      <c r="C482" t="n">
+        <v>303.1499938964844</v>
+      </c>
+      <c r="D482" t="n">
+        <v>282.6499938964844</v>
+      </c>
+      <c r="E482" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="F482" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="G482" t="n">
+        <v>286385</v>
+      </c>
+      <c r="H482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I482" t="n">
+        <v>10</v>
+      </c>
+      <c r="J482" t="n">
+        <v>23</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>43</v>
+      </c>
+      <c r="O482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B483" t="n">
+        <v>301</v>
+      </c>
+      <c r="C483" t="n">
+        <v>301</v>
+      </c>
+      <c r="D483" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="E483" t="n">
+        <v>297.6000061035156</v>
+      </c>
+      <c r="F483" t="n">
+        <v>297.6000061035156</v>
+      </c>
+      <c r="G483" t="n">
+        <v>162391</v>
+      </c>
+      <c r="H483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I483" t="n">
+        <v>10</v>
+      </c>
+      <c r="J483" t="n">
+        <v>24</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N483" t="n">
+        <v>43</v>
+      </c>
+      <c r="O483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B484" t="n">
+        <v>297.8999938964844</v>
+      </c>
+      <c r="C484" t="n">
+        <v>299.5499877929688</v>
+      </c>
+      <c r="D484" t="n">
+        <v>282.75</v>
+      </c>
+      <c r="E484" t="n">
+        <v>293</v>
+      </c>
+      <c r="F484" t="n">
+        <v>293</v>
+      </c>
+      <c r="G484" t="n">
+        <v>307464</v>
+      </c>
+      <c r="H484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I484" t="n">
+        <v>10</v>
+      </c>
+      <c r="J484" t="n">
+        <v>25</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N484" t="n">
+        <v>43</v>
+      </c>
+      <c r="O484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R484"/>
+  <dimension ref="A1:R489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27349,7 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
-      <c r="R480" t="inlineStr"/>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -27403,7 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
-      <c r="R481" t="inlineStr"/>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -27457,7 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
-      <c r="R482" t="inlineStr"/>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -27511,7 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
-      <c r="R483" t="inlineStr"/>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -27565,7 +27573,279 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
-      <c r="R484" t="inlineStr"/>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B485" t="n">
+        <v>292</v>
+      </c>
+      <c r="C485" t="n">
+        <v>307.6499938964844</v>
+      </c>
+      <c r="D485" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="E485" t="n">
+        <v>306.1499938964844</v>
+      </c>
+      <c r="F485" t="n">
+        <v>306.1499938964844</v>
+      </c>
+      <c r="G485" t="n">
+        <v>321629</v>
+      </c>
+      <c r="H485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I485" t="n">
+        <v>10</v>
+      </c>
+      <c r="J485" t="n">
+        <v>28</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N485" t="n">
+        <v>44</v>
+      </c>
+      <c r="O485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B486" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="C486" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="D486" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="E486" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="F486" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="G486" t="n">
+        <v>78225</v>
+      </c>
+      <c r="H486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I486" t="n">
+        <v>10</v>
+      </c>
+      <c r="J486" t="n">
+        <v>29</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N486" t="n">
+        <v>44</v>
+      </c>
+      <c r="O486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B487" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="C487" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="D487" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="E487" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="F487" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="G487" t="n">
+        <v>74382</v>
+      </c>
+      <c r="H487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I487" t="n">
+        <v>10</v>
+      </c>
+      <c r="J487" t="n">
+        <v>30</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N487" t="n">
+        <v>44</v>
+      </c>
+      <c r="O487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B488" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="C488" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="D488" t="n">
+        <v>347.1000061035156</v>
+      </c>
+      <c r="E488" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="F488" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="G488" t="n">
+        <v>856924</v>
+      </c>
+      <c r="H488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I488" t="n">
+        <v>10</v>
+      </c>
+      <c r="J488" t="n">
+        <v>31</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" t="n">
+        <v>44</v>
+      </c>
+      <c r="O488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B489" t="n">
+        <v>358</v>
+      </c>
+      <c r="C489" t="n">
+        <v>358</v>
+      </c>
+      <c r="D489" t="n">
+        <v>341.1499938964844</v>
+      </c>
+      <c r="E489" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="F489" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="G489" t="n">
+        <v>494515</v>
+      </c>
+      <c r="H489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I489" t="n">
+        <v>11</v>
+      </c>
+      <c r="J489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N489" t="n">
+        <v>44</v>
+      </c>
+      <c r="O489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R489" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R489"/>
+  <dimension ref="A1:R494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27453,7 +27453,7 @@
         <v>43</v>
       </c>
       <c r="O482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P482" t="n">
         <v>0</v>
@@ -27629,7 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
-      <c r="R485" t="inlineStr"/>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -27683,7 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
-      <c r="R486" t="inlineStr"/>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -27737,7 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
-      <c r="R487" t="inlineStr"/>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -27791,7 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
-      <c r="R488" t="inlineStr"/>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -27845,7 +27853,279 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
-      <c r="R489" t="inlineStr"/>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B490" t="n">
+        <v>349.2999877929688</v>
+      </c>
+      <c r="C490" t="n">
+        <v>353.2999877929688</v>
+      </c>
+      <c r="D490" t="n">
+        <v>333.2000122070312</v>
+      </c>
+      <c r="E490" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="F490" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="G490" t="n">
+        <v>408730</v>
+      </c>
+      <c r="H490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I490" t="n">
+        <v>11</v>
+      </c>
+      <c r="J490" t="n">
+        <v>4</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N490" t="n">
+        <v>45</v>
+      </c>
+      <c r="O490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B491" t="n">
+        <v>338.5499877929688</v>
+      </c>
+      <c r="C491" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D491" t="n">
+        <v>333.1499938964844</v>
+      </c>
+      <c r="E491" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="F491" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="G491" t="n">
+        <v>225338</v>
+      </c>
+      <c r="H491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I491" t="n">
+        <v>11</v>
+      </c>
+      <c r="J491" t="n">
+        <v>5</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N491" t="n">
+        <v>45</v>
+      </c>
+      <c r="O491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B492" t="n">
+        <v>342</v>
+      </c>
+      <c r="C492" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="D492" t="n">
+        <v>336.6499938964844</v>
+      </c>
+      <c r="E492" t="n">
+        <v>344.5499877929688</v>
+      </c>
+      <c r="F492" t="n">
+        <v>344.5499877929688</v>
+      </c>
+      <c r="G492" t="n">
+        <v>329427</v>
+      </c>
+      <c r="H492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I492" t="n">
+        <v>11</v>
+      </c>
+      <c r="J492" t="n">
+        <v>6</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N492" t="n">
+        <v>45</v>
+      </c>
+      <c r="O492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B493" t="n">
+        <v>349.2000122070312</v>
+      </c>
+      <c r="C493" t="n">
+        <v>349.2000122070312</v>
+      </c>
+      <c r="D493" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="E493" t="n">
+        <v>341.2000122070312</v>
+      </c>
+      <c r="F493" t="n">
+        <v>341.2000122070312</v>
+      </c>
+      <c r="G493" t="n">
+        <v>207247</v>
+      </c>
+      <c r="H493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I493" t="n">
+        <v>11</v>
+      </c>
+      <c r="J493" t="n">
+        <v>7</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N493" t="n">
+        <v>45</v>
+      </c>
+      <c r="O493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B494" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="C494" t="n">
+        <v>349</v>
+      </c>
+      <c r="D494" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="E494" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="F494" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="G494" t="n">
+        <v>266976</v>
+      </c>
+      <c r="H494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I494" t="n">
+        <v>11</v>
+      </c>
+      <c r="J494" t="n">
+        <v>8</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N494" t="n">
+        <v>45</v>
+      </c>
+      <c r="O494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R494" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R494"/>
+  <dimension ref="A1:R498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27909,7 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
-      <c r="R490" t="inlineStr"/>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -27963,7 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
-      <c r="R491" t="inlineStr"/>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -28017,7 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
-      <c r="R492" t="inlineStr"/>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -28071,7 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
-      <c r="R493" t="inlineStr"/>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -28125,7 +28133,225 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
-      <c r="R494" t="inlineStr"/>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B495" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="C495" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="D495" t="n">
+        <v>341.7000122070312</v>
+      </c>
+      <c r="E495" t="n">
+        <v>347.7999877929688</v>
+      </c>
+      <c r="F495" t="n">
+        <v>347.7999877929688</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1528020</v>
+      </c>
+      <c r="H495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I495" t="n">
+        <v>11</v>
+      </c>
+      <c r="J495" t="n">
+        <v>11</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N495" t="n">
+        <v>46</v>
+      </c>
+      <c r="O495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B496" t="n">
+        <v>347.7999877929688</v>
+      </c>
+      <c r="C496" t="n">
+        <v>350.7999877929688</v>
+      </c>
+      <c r="D496" t="n">
+        <v>331.2000122070312</v>
+      </c>
+      <c r="E496" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="F496" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="G496" t="n">
+        <v>292496</v>
+      </c>
+      <c r="H496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I496" t="n">
+        <v>11</v>
+      </c>
+      <c r="J496" t="n">
+        <v>12</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N496" t="n">
+        <v>46</v>
+      </c>
+      <c r="O496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B497" t="n">
+        <v>320</v>
+      </c>
+      <c r="C497" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="D497" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="E497" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="F497" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="G497" t="n">
+        <v>234557</v>
+      </c>
+      <c r="H497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I497" t="n">
+        <v>11</v>
+      </c>
+      <c r="J497" t="n">
+        <v>13</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N497" t="n">
+        <v>46</v>
+      </c>
+      <c r="O497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B498" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="C498" t="n">
+        <v>328</v>
+      </c>
+      <c r="D498" t="n">
+        <v>302.3999938964844</v>
+      </c>
+      <c r="E498" t="n">
+        <v>303.1000061035156</v>
+      </c>
+      <c r="F498" t="n">
+        <v>303.1000061035156</v>
+      </c>
+      <c r="G498" t="n">
+        <v>861542</v>
+      </c>
+      <c r="H498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I498" t="n">
+        <v>11</v>
+      </c>
+      <c r="J498" t="n">
+        <v>14</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>46</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R498"/>
+  <dimension ref="A1:R502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27845,7 +27845,7 @@
         <v>44</v>
       </c>
       <c r="O489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P489" t="n">
         <v>0</v>
@@ -28189,7 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
-      <c r="R495" t="inlineStr"/>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -28243,7 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
-      <c r="R496" t="inlineStr"/>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -28297,7 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
-      <c r="R497" t="inlineStr"/>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -28351,7 +28357,225 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
-      <c r="R498" t="inlineStr"/>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B499" t="n">
+        <v>303.1000061035156</v>
+      </c>
+      <c r="C499" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="D499" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="E499" t="n">
+        <v>316.9500122070312</v>
+      </c>
+      <c r="F499" t="n">
+        <v>316.9500122070312</v>
+      </c>
+      <c r="G499" t="n">
+        <v>473205</v>
+      </c>
+      <c r="H499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I499" t="n">
+        <v>11</v>
+      </c>
+      <c r="J499" t="n">
+        <v>18</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" t="n">
+        <v>47</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B500" t="n">
+        <v>317.3999938964844</v>
+      </c>
+      <c r="C500" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="D500" t="n">
+        <v>311.4500122070312</v>
+      </c>
+      <c r="E500" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="F500" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="G500" t="n">
+        <v>390091</v>
+      </c>
+      <c r="H500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I500" t="n">
+        <v>11</v>
+      </c>
+      <c r="J500" t="n">
+        <v>19</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>47</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B501" t="n">
+        <v>313</v>
+      </c>
+      <c r="C501" t="n">
+        <v>320</v>
+      </c>
+      <c r="D501" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E501" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="F501" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="G501" t="n">
+        <v>256019</v>
+      </c>
+      <c r="H501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I501" t="n">
+        <v>11</v>
+      </c>
+      <c r="J501" t="n">
+        <v>21</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" t="n">
+        <v>47</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B502" t="n">
+        <v>314.8999938964844</v>
+      </c>
+      <c r="C502" t="n">
+        <v>323</v>
+      </c>
+      <c r="D502" t="n">
+        <v>314.8999938964844</v>
+      </c>
+      <c r="E502" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="F502" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="G502" t="n">
+        <v>243200</v>
+      </c>
+      <c r="H502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I502" t="n">
+        <v>11</v>
+      </c>
+      <c r="J502" t="n">
+        <v>22</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N502" t="n">
+        <v>47</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R502" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R502"/>
+  <dimension ref="A1:R507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28413,7 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
-      <c r="R499" t="inlineStr"/>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -28467,7 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
-      <c r="R500" t="inlineStr"/>
+      <c r="R500" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -28521,7 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
-      <c r="R501" t="inlineStr"/>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -28575,7 +28581,279 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
-      <c r="R502" t="inlineStr"/>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B503" t="n">
+        <v>322.9500122070312</v>
+      </c>
+      <c r="C503" t="n">
+        <v>329.8500061035156</v>
+      </c>
+      <c r="D503" t="n">
+        <v>322</v>
+      </c>
+      <c r="E503" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="F503" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="G503" t="n">
+        <v>296743</v>
+      </c>
+      <c r="H503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I503" t="n">
+        <v>11</v>
+      </c>
+      <c r="J503" t="n">
+        <v>25</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N503" t="n">
+        <v>48</v>
+      </c>
+      <c r="O503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B504" t="n">
+        <v>325.2999877929688</v>
+      </c>
+      <c r="C504" t="n">
+        <v>329</v>
+      </c>
+      <c r="D504" t="n">
+        <v>320.5499877929688</v>
+      </c>
+      <c r="E504" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="F504" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="G504" t="n">
+        <v>170494</v>
+      </c>
+      <c r="H504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I504" t="n">
+        <v>11</v>
+      </c>
+      <c r="J504" t="n">
+        <v>26</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N504" t="n">
+        <v>48</v>
+      </c>
+      <c r="O504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B505" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="C505" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="D505" t="n">
+        <v>322.6499938964844</v>
+      </c>
+      <c r="E505" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="F505" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="G505" t="n">
+        <v>304530</v>
+      </c>
+      <c r="H505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I505" t="n">
+        <v>11</v>
+      </c>
+      <c r="J505" t="n">
+        <v>27</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N505" t="n">
+        <v>48</v>
+      </c>
+      <c r="O505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B506" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="D506" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="E506" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="F506" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="G506" t="n">
+        <v>319844</v>
+      </c>
+      <c r="H506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I506" t="n">
+        <v>11</v>
+      </c>
+      <c r="J506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N506" t="n">
+        <v>48</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B507" t="n">
+        <v>335</v>
+      </c>
+      <c r="C507" t="n">
+        <v>342</v>
+      </c>
+      <c r="D507" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="E507" t="n">
+        <v>335.4500122070312</v>
+      </c>
+      <c r="F507" t="n">
+        <v>335.4500122070312</v>
+      </c>
+      <c r="G507" t="n">
+        <v>274510</v>
+      </c>
+      <c r="H507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J507" t="n">
+        <v>29</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" t="n">
+        <v>48</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R507" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R507"/>
+  <dimension ref="A1:R512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28405,7 +28405,7 @@
         <v>47</v>
       </c>
       <c r="O499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P499" t="n">
         <v>0</v>
@@ -28637,7 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
-      <c r="R503" t="inlineStr"/>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -28691,7 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
-      <c r="R504" t="inlineStr"/>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -28745,7 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
-      <c r="R505" t="inlineStr"/>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -28799,7 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
-      <c r="R506" t="inlineStr"/>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -28853,7 +28861,279 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
-      <c r="R507" t="inlineStr"/>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B508" t="n">
+        <v>337</v>
+      </c>
+      <c r="C508" t="n">
+        <v>350.5499877929688</v>
+      </c>
+      <c r="D508" t="n">
+        <v>335.5499877929688</v>
+      </c>
+      <c r="E508" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="F508" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="G508" t="n">
+        <v>695691</v>
+      </c>
+      <c r="H508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I508" t="n">
+        <v>12</v>
+      </c>
+      <c r="J508" t="n">
+        <v>2</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N508" t="n">
+        <v>49</v>
+      </c>
+      <c r="O508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B509" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="C509" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="D509" t="n">
+        <v>338</v>
+      </c>
+      <c r="E509" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="F509" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="G509" t="n">
+        <v>359331</v>
+      </c>
+      <c r="H509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I509" t="n">
+        <v>12</v>
+      </c>
+      <c r="J509" t="n">
+        <v>3</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N509" t="n">
+        <v>49</v>
+      </c>
+      <c r="O509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B510" t="n">
+        <v>341.2000122070312</v>
+      </c>
+      <c r="C510" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="D510" t="n">
+        <v>339.8500061035156</v>
+      </c>
+      <c r="E510" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="F510" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="G510" t="n">
+        <v>532122</v>
+      </c>
+      <c r="H510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I510" t="n">
+        <v>12</v>
+      </c>
+      <c r="J510" t="n">
+        <v>4</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N510" t="n">
+        <v>49</v>
+      </c>
+      <c r="O510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B511" t="n">
+        <v>342.9500122070312</v>
+      </c>
+      <c r="C511" t="n">
+        <v>345.1499938964844</v>
+      </c>
+      <c r="D511" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="E511" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="F511" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="G511" t="n">
+        <v>337970</v>
+      </c>
+      <c r="H511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J511" t="n">
+        <v>5</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B512" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="C512" t="n">
+        <v>342</v>
+      </c>
+      <c r="D512" t="n">
+        <v>331.7999877929688</v>
+      </c>
+      <c r="E512" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="F512" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="G512" t="n">
+        <v>329708</v>
+      </c>
+      <c r="H512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J512" t="n">
+        <v>6</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N512" t="n">
+        <v>49</v>
+      </c>
+      <c r="O512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R512" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R512"/>
+  <dimension ref="A1:R522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28917,7 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
-      <c r="R508" t="inlineStr"/>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -28971,7 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
-      <c r="R509" t="inlineStr"/>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -29017,7 +29021,7 @@
         <v>49</v>
       </c>
       <c r="O510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P510" t="n">
         <v>0</v>
@@ -29025,7 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
-      <c r="R510" t="inlineStr"/>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -29079,7 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
-      <c r="R511" t="inlineStr"/>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -29133,7 +29141,529 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
-      <c r="R512" t="inlineStr"/>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B513" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="C513" t="n">
+        <v>339.7999877929688</v>
+      </c>
+      <c r="D513" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="E513" t="n">
+        <v>329.6499938964844</v>
+      </c>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="n">
+        <v>446643</v>
+      </c>
+      <c r="H513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J513" t="n">
+        <v>9</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N513" t="n">
+        <v>50</v>
+      </c>
+      <c r="O513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B514" t="n">
+        <v>329</v>
+      </c>
+      <c r="C514" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="D514" t="n">
+        <v>323</v>
+      </c>
+      <c r="E514" t="n">
+        <v>324.8999938964844</v>
+      </c>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="n">
+        <v>211016</v>
+      </c>
+      <c r="H514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J514" t="n">
+        <v>10</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N514" t="n">
+        <v>50</v>
+      </c>
+      <c r="O514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B515" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="C515" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="D515" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E515" t="n">
+        <v>318.3999938964844</v>
+      </c>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="n">
+        <v>499311</v>
+      </c>
+      <c r="H515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J515" t="n">
+        <v>11</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N515" t="n">
+        <v>50</v>
+      </c>
+      <c r="O515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B516" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="C516" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="D516" t="n">
+        <v>311.2000122070312</v>
+      </c>
+      <c r="E516" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="n">
+        <v>508939</v>
+      </c>
+      <c r="H516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I516" t="n">
+        <v>12</v>
+      </c>
+      <c r="J516" t="n">
+        <v>12</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" t="n">
+        <v>50</v>
+      </c>
+      <c r="O516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B517" t="n">
+        <v>311.7999877929688</v>
+      </c>
+      <c r="C517" t="n">
+        <v>325</v>
+      </c>
+      <c r="D517" t="n">
+        <v>311.6499938964844</v>
+      </c>
+      <c r="E517" t="n">
+        <v>315.6499938964844</v>
+      </c>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="n">
+        <v>897983</v>
+      </c>
+      <c r="H517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I517" t="n">
+        <v>12</v>
+      </c>
+      <c r="J517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N517" t="n">
+        <v>50</v>
+      </c>
+      <c r="O517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B518" t="n">
+        <v>318.9500122070312</v>
+      </c>
+      <c r="C518" t="n">
+        <v>322</v>
+      </c>
+      <c r="D518" t="n">
+        <v>312.1000061035156</v>
+      </c>
+      <c r="E518" t="n">
+        <v>313.75</v>
+      </c>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="n">
+        <v>374924</v>
+      </c>
+      <c r="H518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I518" t="n">
+        <v>12</v>
+      </c>
+      <c r="J518" t="n">
+        <v>16</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N518" t="n">
+        <v>51</v>
+      </c>
+      <c r="O518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B519" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="C519" t="n">
+        <v>345</v>
+      </c>
+      <c r="D519" t="n">
+        <v>313.75</v>
+      </c>
+      <c r="E519" t="n">
+        <v>341.8500061035156</v>
+      </c>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="n">
+        <v>2102262</v>
+      </c>
+      <c r="H519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I519" t="n">
+        <v>12</v>
+      </c>
+      <c r="J519" t="n">
+        <v>17</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" t="n">
+        <v>51</v>
+      </c>
+      <c r="O519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B520" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="C520" t="n">
+        <v>344</v>
+      </c>
+      <c r="D520" t="n">
+        <v>326</v>
+      </c>
+      <c r="E520" t="n">
+        <v>327.3999938964844</v>
+      </c>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="n">
+        <v>566188</v>
+      </c>
+      <c r="H520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I520" t="n">
+        <v>12</v>
+      </c>
+      <c r="J520" t="n">
+        <v>18</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N520" t="n">
+        <v>51</v>
+      </c>
+      <c r="O520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B521" t="n">
+        <v>320.1499938964844</v>
+      </c>
+      <c r="C521" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D521" t="n">
+        <v>319.25</v>
+      </c>
+      <c r="E521" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="n">
+        <v>1059146</v>
+      </c>
+      <c r="H521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I521" t="n">
+        <v>12</v>
+      </c>
+      <c r="J521" t="n">
+        <v>19</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N521" t="n">
+        <v>51</v>
+      </c>
+      <c r="O521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P521" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B522" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="C522" t="n">
+        <v>344</v>
+      </c>
+      <c r="D522" t="n">
+        <v>324.8999938964844</v>
+      </c>
+      <c r="E522" t="n">
+        <v>329.7999877929688</v>
+      </c>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="n">
+        <v>1002385</v>
+      </c>
+      <c r="H522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I522" t="n">
+        <v>12</v>
+      </c>
+      <c r="J522" t="n">
+        <v>20</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N522" t="n">
+        <v>51</v>
+      </c>
+      <c r="O522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R522" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R522"/>
+  <dimension ref="A1:R526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29195,7 +29195,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
-      <c r="R513" t="inlineStr"/>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -29247,7 +29249,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
-      <c r="R514" t="inlineStr"/>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -29299,7 +29303,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
-      <c r="R515" t="inlineStr"/>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -29343,7 +29349,7 @@
         <v>50</v>
       </c>
       <c r="O516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P516" t="n">
         <v>0</v>
@@ -29351,7 +29357,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
-      <c r="R516" t="inlineStr"/>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -29403,7 +29411,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
-      <c r="R517" t="inlineStr"/>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -29455,7 +29465,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
-      <c r="R518" t="inlineStr"/>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -29507,7 +29519,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
-      <c r="R519" t="inlineStr"/>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -29559,7 +29573,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
-      <c r="R520" t="inlineStr"/>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -29611,7 +29627,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
-      <c r="R521" t="inlineStr"/>
+      <c r="R521" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -29663,7 +29681,217 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
-      <c r="R522" t="inlineStr"/>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B523" t="n">
+        <v>334.9500122070312</v>
+      </c>
+      <c r="C523" t="n">
+        <v>338.2000122070312</v>
+      </c>
+      <c r="D523" t="n">
+        <v>321</v>
+      </c>
+      <c r="E523" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="n">
+        <v>784138</v>
+      </c>
+      <c r="H523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I523" t="n">
+        <v>12</v>
+      </c>
+      <c r="J523" t="n">
+        <v>23</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N523" t="n">
+        <v>52</v>
+      </c>
+      <c r="O523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B524" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="C524" t="n">
+        <v>350</v>
+      </c>
+      <c r="D524" t="n">
+        <v>327</v>
+      </c>
+      <c r="E524" t="n">
+        <v>334.7999877929688</v>
+      </c>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="n">
+        <v>1116956</v>
+      </c>
+      <c r="H524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I524" t="n">
+        <v>12</v>
+      </c>
+      <c r="J524" t="n">
+        <v>24</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N524" t="n">
+        <v>52</v>
+      </c>
+      <c r="O524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B525" t="n">
+        <v>340.2000122070312</v>
+      </c>
+      <c r="C525" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="D525" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="E525" t="n">
+        <v>339.6499938964844</v>
+      </c>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="n">
+        <v>890496</v>
+      </c>
+      <c r="H525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I525" t="n">
+        <v>12</v>
+      </c>
+      <c r="J525" t="n">
+        <v>26</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N525" t="n">
+        <v>52</v>
+      </c>
+      <c r="O525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B526" t="n">
+        <v>336.8999938964844</v>
+      </c>
+      <c r="C526" t="n">
+        <v>367.8999938964844</v>
+      </c>
+      <c r="D526" t="n">
+        <v>335.3999938964844</v>
+      </c>
+      <c r="E526" t="n">
+        <v>355.6000061035156</v>
+      </c>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="n">
+        <v>2545664</v>
+      </c>
+      <c r="H526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I526" t="n">
+        <v>12</v>
+      </c>
+      <c r="J526" t="n">
+        <v>27</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N526" t="n">
+        <v>52</v>
+      </c>
+      <c r="O526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R526" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R526"/>
+  <dimension ref="A1:R531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29735,7 +29735,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
-      <c r="R523" t="inlineStr"/>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -29787,7 +29789,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
-      <c r="R524" t="inlineStr"/>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -29839,7 +29843,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
-      <c r="R525" t="inlineStr"/>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -29891,7 +29897,269 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
-      <c r="R526" t="inlineStr"/>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B527" t="n">
+        <v>358</v>
+      </c>
+      <c r="C527" t="n">
+        <v>362</v>
+      </c>
+      <c r="D527" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="E527" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="n">
+        <v>1040292</v>
+      </c>
+      <c r="H527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I527" t="n">
+        <v>12</v>
+      </c>
+      <c r="J527" t="n">
+        <v>30</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N527" t="n">
+        <v>1</v>
+      </c>
+      <c r="O527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>1</v>
+      </c>
+      <c r="R527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B528" t="n">
+        <v>343.75</v>
+      </c>
+      <c r="C528" t="n">
+        <v>350.1000061035156</v>
+      </c>
+      <c r="D528" t="n">
+        <v>337</v>
+      </c>
+      <c r="E528" t="n">
+        <v>347.9500122070312</v>
+      </c>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="n">
+        <v>596892</v>
+      </c>
+      <c r="H528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I528" t="n">
+        <v>12</v>
+      </c>
+      <c r="J528" t="n">
+        <v>31</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" t="n">
+        <v>1</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B529" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="C529" t="n">
+        <v>367</v>
+      </c>
+      <c r="D529" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="E529" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="n">
+        <v>1232041</v>
+      </c>
+      <c r="H529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I529" t="n">
+        <v>1</v>
+      </c>
+      <c r="J529" t="n">
+        <v>1</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" t="n">
+        <v>1</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B530" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="C530" t="n">
+        <v>372.9500122070312</v>
+      </c>
+      <c r="D530" t="n">
+        <v>352.8500061035156</v>
+      </c>
+      <c r="E530" t="n">
+        <v>367.6000061035156</v>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="n">
+        <v>2309474</v>
+      </c>
+      <c r="H530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I530" t="n">
+        <v>1</v>
+      </c>
+      <c r="J530" t="n">
+        <v>2</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N530" t="n">
+        <v>1</v>
+      </c>
+      <c r="O530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B531" t="n">
+        <v>370</v>
+      </c>
+      <c r="C531" t="n">
+        <v>380</v>
+      </c>
+      <c r="D531" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="E531" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="n">
+        <v>1888156</v>
+      </c>
+      <c r="H531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1</v>
+      </c>
+      <c r="J531" t="n">
+        <v>3</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" t="n">
+        <v>1</v>
+      </c>
+      <c r="O531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R531" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R531"/>
+  <dimension ref="A1:R536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29951,7 +29951,9 @@
       <c r="Q527" t="n">
         <v>1</v>
       </c>
-      <c r="R527" t="inlineStr"/>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -30003,7 +30005,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
-      <c r="R528" t="inlineStr"/>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -30055,7 +30059,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
-      <c r="R529" t="inlineStr"/>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -30107,7 +30113,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
-      <c r="R530" t="inlineStr"/>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -30159,7 +30167,269 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
-      <c r="R531" t="inlineStr"/>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B532" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="C532" t="n">
+        <v>393</v>
+      </c>
+      <c r="D532" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="E532" t="n">
+        <v>373.1000061035156</v>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="n">
+        <v>3676680</v>
+      </c>
+      <c r="H532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I532" t="n">
+        <v>1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>6</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" t="n">
+        <v>2</v>
+      </c>
+      <c r="O532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B533" t="n">
+        <v>376</v>
+      </c>
+      <c r="C533" t="n">
+        <v>382.2000122070312</v>
+      </c>
+      <c r="D533" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="E533" t="n">
+        <v>377.3500061035156</v>
+      </c>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="n">
+        <v>1394169</v>
+      </c>
+      <c r="H533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>7</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" t="n">
+        <v>2</v>
+      </c>
+      <c r="O533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B534" t="n">
+        <v>376.9500122070312</v>
+      </c>
+      <c r="C534" t="n">
+        <v>389</v>
+      </c>
+      <c r="D534" t="n">
+        <v>368.5499877929688</v>
+      </c>
+      <c r="E534" t="n">
+        <v>383.6000061035156</v>
+      </c>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="n">
+        <v>1899848</v>
+      </c>
+      <c r="H534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I534" t="n">
+        <v>1</v>
+      </c>
+      <c r="J534" t="n">
+        <v>8</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" t="n">
+        <v>2</v>
+      </c>
+      <c r="O534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B535" t="n">
+        <v>382</v>
+      </c>
+      <c r="C535" t="n">
+        <v>386.2999877929688</v>
+      </c>
+      <c r="D535" t="n">
+        <v>370</v>
+      </c>
+      <c r="E535" t="n">
+        <v>375.1000061035156</v>
+      </c>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="n">
+        <v>1051008</v>
+      </c>
+      <c r="H535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1</v>
+      </c>
+      <c r="J535" t="n">
+        <v>9</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" t="n">
+        <v>2</v>
+      </c>
+      <c r="O535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B536" t="n">
+        <v>374.7999877929688</v>
+      </c>
+      <c r="C536" t="n">
+        <v>374.9500122070312</v>
+      </c>
+      <c r="D536" t="n">
+        <v>356.4500122070312</v>
+      </c>
+      <c r="E536" t="n">
+        <v>364.3999938964844</v>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="n">
+        <v>873160</v>
+      </c>
+      <c r="H536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I536" t="n">
+        <v>1</v>
+      </c>
+      <c r="J536" t="n">
+        <v>10</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" t="n">
+        <v>2</v>
+      </c>
+      <c r="O536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R536"/>
+  <dimension ref="A1:R541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30221,7 +30221,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
-      <c r="R532" t="inlineStr"/>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -30273,7 +30275,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
-      <c r="R533" t="inlineStr"/>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -30325,7 +30329,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
-      <c r="R534" t="inlineStr"/>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -30377,7 +30383,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
-      <c r="R535" t="inlineStr"/>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -30429,7 +30437,269 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
-      <c r="R536" t="inlineStr"/>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B537" t="n">
+        <v>360</v>
+      </c>
+      <c r="C537" t="n">
+        <v>364.7000122070312</v>
+      </c>
+      <c r="D537" t="n">
+        <v>336</v>
+      </c>
+      <c r="E537" t="n">
+        <v>342.1000061035156</v>
+      </c>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="n">
+        <v>964467</v>
+      </c>
+      <c r="H537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I537" t="n">
+        <v>1</v>
+      </c>
+      <c r="J537" t="n">
+        <v>13</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" t="n">
+        <v>3</v>
+      </c>
+      <c r="O537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B538" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="C538" t="n">
+        <v>355</v>
+      </c>
+      <c r="D538" t="n">
+        <v>340.1000061035156</v>
+      </c>
+      <c r="E538" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="n">
+        <v>593438</v>
+      </c>
+      <c r="H538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1</v>
+      </c>
+      <c r="J538" t="n">
+        <v>14</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N538" t="n">
+        <v>3</v>
+      </c>
+      <c r="O538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B539" t="n">
+        <v>356</v>
+      </c>
+      <c r="C539" t="n">
+        <v>369</v>
+      </c>
+      <c r="D539" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="E539" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="n">
+        <v>661345</v>
+      </c>
+      <c r="H539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I539" t="n">
+        <v>1</v>
+      </c>
+      <c r="J539" t="n">
+        <v>15</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" t="n">
+        <v>3</v>
+      </c>
+      <c r="O539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B540" t="n">
+        <v>366</v>
+      </c>
+      <c r="C540" t="n">
+        <v>372</v>
+      </c>
+      <c r="D540" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="E540" t="n">
+        <v>365.1000061035156</v>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="n">
+        <v>372384</v>
+      </c>
+      <c r="H540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1</v>
+      </c>
+      <c r="J540" t="n">
+        <v>16</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N540" t="n">
+        <v>3</v>
+      </c>
+      <c r="O540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B541" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="C541" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D541" t="n">
+        <v>361</v>
+      </c>
+      <c r="E541" t="n">
+        <v>368.5499877929688</v>
+      </c>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="n">
+        <v>427390</v>
+      </c>
+      <c r="H541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I541" t="n">
+        <v>1</v>
+      </c>
+      <c r="J541" t="n">
+        <v>17</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N541" t="n">
+        <v>3</v>
+      </c>
+      <c r="O541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R541" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R541"/>
+  <dimension ref="A1:R546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30213,7 +30213,7 @@
         <v>2</v>
       </c>
       <c r="O532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P532" t="n">
         <v>0</v>
@@ -30491,7 +30491,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
-      <c r="R537" t="inlineStr"/>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -30543,7 +30545,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
-      <c r="R538" t="inlineStr"/>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -30595,7 +30599,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
-      <c r="R539" t="inlineStr"/>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -30647,7 +30653,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
-      <c r="R540" t="inlineStr"/>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -30699,7 +30707,269 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
-      <c r="R541" t="inlineStr"/>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B542" t="n">
+        <v>369.7000122070312</v>
+      </c>
+      <c r="C542" t="n">
+        <v>372</v>
+      </c>
+      <c r="D542" t="n">
+        <v>364</v>
+      </c>
+      <c r="E542" t="n">
+        <v>366.1000061035156</v>
+      </c>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="n">
+        <v>506116</v>
+      </c>
+      <c r="H542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I542" t="n">
+        <v>1</v>
+      </c>
+      <c r="J542" t="n">
+        <v>20</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N542" t="n">
+        <v>4</v>
+      </c>
+      <c r="O542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B543" t="n">
+        <v>367.8999938964844</v>
+      </c>
+      <c r="C543" t="n">
+        <v>378</v>
+      </c>
+      <c r="D543" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="E543" t="n">
+        <v>356.5499877929688</v>
+      </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="n">
+        <v>756163</v>
+      </c>
+      <c r="H543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I543" t="n">
+        <v>1</v>
+      </c>
+      <c r="J543" t="n">
+        <v>21</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" t="n">
+        <v>4</v>
+      </c>
+      <c r="O543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B544" t="n">
+        <v>359.7000122070312</v>
+      </c>
+      <c r="C544" t="n">
+        <v>359.7000122070312</v>
+      </c>
+      <c r="D544" t="n">
+        <v>339</v>
+      </c>
+      <c r="E544" t="n">
+        <v>348.3500061035156</v>
+      </c>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="n">
+        <v>512120</v>
+      </c>
+      <c r="H544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1</v>
+      </c>
+      <c r="J544" t="n">
+        <v>22</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N544" t="n">
+        <v>4</v>
+      </c>
+      <c r="O544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B545" t="n">
+        <v>348.3999938964844</v>
+      </c>
+      <c r="C545" t="n">
+        <v>357.2999877929688</v>
+      </c>
+      <c r="D545" t="n">
+        <v>338</v>
+      </c>
+      <c r="E545" t="n">
+        <v>342</v>
+      </c>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="n">
+        <v>648990</v>
+      </c>
+      <c r="H545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1</v>
+      </c>
+      <c r="J545" t="n">
+        <v>23</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N545" t="n">
+        <v>4</v>
+      </c>
+      <c r="O545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B546" t="n">
+        <v>342</v>
+      </c>
+      <c r="C546" t="n">
+        <v>346.2000122070312</v>
+      </c>
+      <c r="D546" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="E546" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="n">
+        <v>398084</v>
+      </c>
+      <c r="H546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I546" t="n">
+        <v>1</v>
+      </c>
+      <c r="J546" t="n">
+        <v>24</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" t="n">
+        <v>4</v>
+      </c>
+      <c r="O546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R546" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R546"/>
+  <dimension ref="A1:R551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30761,7 +30761,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
-      <c r="R542" t="inlineStr"/>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -30813,7 +30815,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
-      <c r="R543" t="inlineStr"/>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -30865,7 +30869,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
-      <c r="R544" t="inlineStr"/>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -30917,7 +30923,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
-      <c r="R545" t="inlineStr"/>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -30969,7 +30977,269 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
-      <c r="R546" t="inlineStr"/>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B547" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="C547" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="D547" t="n">
+        <v>311</v>
+      </c>
+      <c r="E547" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="n">
+        <v>560190</v>
+      </c>
+      <c r="H547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I547" t="n">
+        <v>1</v>
+      </c>
+      <c r="J547" t="n">
+        <v>27</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N547" t="n">
+        <v>5</v>
+      </c>
+      <c r="O547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B548" t="n">
+        <v>316.3999938964844</v>
+      </c>
+      <c r="C548" t="n">
+        <v>328.3999938964844</v>
+      </c>
+      <c r="D548" t="n">
+        <v>301.4500122070312</v>
+      </c>
+      <c r="E548" t="n">
+        <v>320.2999877929688</v>
+      </c>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="n">
+        <v>863771</v>
+      </c>
+      <c r="H548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1</v>
+      </c>
+      <c r="J548" t="n">
+        <v>28</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N548" t="n">
+        <v>5</v>
+      </c>
+      <c r="O548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B549" t="n">
+        <v>322.9500122070312</v>
+      </c>
+      <c r="C549" t="n">
+        <v>328.7999877929688</v>
+      </c>
+      <c r="D549" t="n">
+        <v>321.0499877929688</v>
+      </c>
+      <c r="E549" t="n">
+        <v>324.1000061035156</v>
+      </c>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="n">
+        <v>349956</v>
+      </c>
+      <c r="H549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I549" t="n">
+        <v>1</v>
+      </c>
+      <c r="J549" t="n">
+        <v>29</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N549" t="n">
+        <v>5</v>
+      </c>
+      <c r="O549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B550" t="n">
+        <v>326</v>
+      </c>
+      <c r="C550" t="n">
+        <v>328</v>
+      </c>
+      <c r="D550" t="n">
+        <v>316</v>
+      </c>
+      <c r="E550" t="n">
+        <v>318.8500061035156</v>
+      </c>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="n">
+        <v>289617</v>
+      </c>
+      <c r="H550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I550" t="n">
+        <v>1</v>
+      </c>
+      <c r="J550" t="n">
+        <v>30</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N550" t="n">
+        <v>5</v>
+      </c>
+      <c r="O550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B551" t="n">
+        <v>320</v>
+      </c>
+      <c r="C551" t="n">
+        <v>328.7999877929688</v>
+      </c>
+      <c r="D551" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="E551" t="n">
+        <v>328.3999938964844</v>
+      </c>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="n">
+        <v>353435</v>
+      </c>
+      <c r="H551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1</v>
+      </c>
+      <c r="J551" t="n">
+        <v>31</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N551" t="n">
+        <v>5</v>
+      </c>
+      <c r="O551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R551" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R551"/>
+  <dimension ref="A1:R557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31031,7 +31031,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
-      <c r="R547" t="inlineStr"/>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -31083,7 +31085,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
-      <c r="R548" t="inlineStr"/>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -31135,7 +31139,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
-      <c r="R549" t="inlineStr"/>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -31187,7 +31193,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
-      <c r="R550" t="inlineStr"/>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -31239,7 +31247,321 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
-      <c r="R551" t="inlineStr"/>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B552" t="n">
+        <v>332.7000122070312</v>
+      </c>
+      <c r="C552" t="n">
+        <v>344.7999877929688</v>
+      </c>
+      <c r="D552" t="n">
+        <v>318.9500122070312</v>
+      </c>
+      <c r="E552" t="n">
+        <v>320.3999938964844</v>
+      </c>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="n">
+        <v>810842</v>
+      </c>
+      <c r="H552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2</v>
+      </c>
+      <c r="J552" t="n">
+        <v>1</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N552" t="n">
+        <v>5</v>
+      </c>
+      <c r="O552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B553" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="C553" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="D553" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="E553" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="n">
+        <v>324614</v>
+      </c>
+      <c r="H553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2</v>
+      </c>
+      <c r="J553" t="n">
+        <v>3</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N553" t="n">
+        <v>6</v>
+      </c>
+      <c r="O553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B554" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="C554" t="n">
+        <v>321.6499938964844</v>
+      </c>
+      <c r="D554" t="n">
+        <v>310.1000061035156</v>
+      </c>
+      <c r="E554" t="n">
+        <v>319.4500122070312</v>
+      </c>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="n">
+        <v>276830</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2</v>
+      </c>
+      <c r="J554" t="n">
+        <v>4</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N554" t="n">
+        <v>6</v>
+      </c>
+      <c r="O554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B555" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="C555" t="n">
+        <v>329</v>
+      </c>
+      <c r="D555" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="E555" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="n">
+        <v>249491</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2</v>
+      </c>
+      <c r="J555" t="n">
+        <v>5</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N555" t="n">
+        <v>6</v>
+      </c>
+      <c r="O555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B556" t="n">
+        <v>329</v>
+      </c>
+      <c r="C556" t="n">
+        <v>332.0499877929688</v>
+      </c>
+      <c r="D556" t="n">
+        <v>319</v>
+      </c>
+      <c r="E556" t="n">
+        <v>327.9500122070312</v>
+      </c>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="n">
+        <v>314376</v>
+      </c>
+      <c r="H556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2</v>
+      </c>
+      <c r="J556" t="n">
+        <v>6</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N556" t="n">
+        <v>6</v>
+      </c>
+      <c r="O556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B557" t="n">
+        <v>309.1499938964844</v>
+      </c>
+      <c r="C557" t="n">
+        <v>315</v>
+      </c>
+      <c r="D557" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="E557" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="n">
+        <v>794109</v>
+      </c>
+      <c r="H557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2</v>
+      </c>
+      <c r="J557" t="n">
+        <v>7</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" t="n">
+        <v>6</v>
+      </c>
+      <c r="O557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R557" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R557"/>
+  <dimension ref="A1:R562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31077,7 +31077,7 @@
         <v>5</v>
       </c>
       <c r="O548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P548" t="n">
         <v>0</v>
@@ -31301,7 +31301,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
-      <c r="R552" t="inlineStr"/>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -31353,7 +31355,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
-      <c r="R553" t="inlineStr"/>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -31405,7 +31409,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
-      <c r="R554" t="inlineStr"/>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -31457,7 +31463,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
-      <c r="R555" t="inlineStr"/>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -31509,7 +31517,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
-      <c r="R556" t="inlineStr"/>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -31561,7 +31571,269 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
-      <c r="R557" t="inlineStr"/>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B558" t="n">
+        <v>308</v>
+      </c>
+      <c r="C558" t="n">
+        <v>311.9500122070312</v>
+      </c>
+      <c r="D558" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="E558" t="n">
+        <v>307.8500061035156</v>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="n">
+        <v>301678</v>
+      </c>
+      <c r="H558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2</v>
+      </c>
+      <c r="J558" t="n">
+        <v>10</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N558" t="n">
+        <v>7</v>
+      </c>
+      <c r="O558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B559" t="n">
+        <v>307.3999938964844</v>
+      </c>
+      <c r="C559" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="D559" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="E559" t="n">
+        <v>298.8500061035156</v>
+      </c>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="n">
+        <v>421609</v>
+      </c>
+      <c r="H559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2</v>
+      </c>
+      <c r="J559" t="n">
+        <v>11</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N559" t="n">
+        <v>7</v>
+      </c>
+      <c r="O559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>1</v>
+      </c>
+      <c r="R559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B560" t="n">
+        <v>295</v>
+      </c>
+      <c r="C560" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="D560" t="n">
+        <v>280</v>
+      </c>
+      <c r="E560" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="n">
+        <v>666028</v>
+      </c>
+      <c r="H560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>12</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N560" t="n">
+        <v>7</v>
+      </c>
+      <c r="O560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B561" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="C561" t="n">
+        <v>298.3500061035156</v>
+      </c>
+      <c r="D561" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="E561" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="n">
+        <v>302187</v>
+      </c>
+      <c r="H561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2</v>
+      </c>
+      <c r="J561" t="n">
+        <v>13</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N561" t="n">
+        <v>7</v>
+      </c>
+      <c r="O561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B562" t="n">
+        <v>287</v>
+      </c>
+      <c r="C562" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="D562" t="n">
+        <v>255.0500030517578</v>
+      </c>
+      <c r="E562" t="n">
+        <v>260.6499938964844</v>
+      </c>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="n">
+        <v>953488</v>
+      </c>
+      <c r="H562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2</v>
+      </c>
+      <c r="J562" t="n">
+        <v>14</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N562" t="n">
+        <v>7</v>
+      </c>
+      <c r="O562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R562"/>
+  <dimension ref="A1:R567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31625,7 +31625,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
-      <c r="R558" t="inlineStr"/>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -31677,7 +31679,9 @@
       <c r="Q559" t="n">
         <v>1</v>
       </c>
-      <c r="R559" t="inlineStr"/>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -31729,7 +31733,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
-      <c r="R560" t="inlineStr"/>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -31781,7 +31787,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
-      <c r="R561" t="inlineStr"/>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -31833,7 +31841,269 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
-      <c r="R562" t="inlineStr"/>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B563" t="n">
+        <v>259.75</v>
+      </c>
+      <c r="C563" t="n">
+        <v>265.4500122070312</v>
+      </c>
+      <c r="D563" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="E563" t="n">
+        <v>251.1999969482422</v>
+      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="n">
+        <v>844624</v>
+      </c>
+      <c r="H563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2</v>
+      </c>
+      <c r="J563" t="n">
+        <v>17</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N563" t="n">
+        <v>8</v>
+      </c>
+      <c r="O563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B564" t="n">
+        <v>254</v>
+      </c>
+      <c r="C564" t="n">
+        <v>257.75</v>
+      </c>
+      <c r="D564" t="n">
+        <v>239</v>
+      </c>
+      <c r="E564" t="n">
+        <v>244.8000030517578</v>
+      </c>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="n">
+        <v>626971</v>
+      </c>
+      <c r="H564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2</v>
+      </c>
+      <c r="J564" t="n">
+        <v>18</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N564" t="n">
+        <v>8</v>
+      </c>
+      <c r="O564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B565" t="n">
+        <v>244.8000030517578</v>
+      </c>
+      <c r="C565" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="D565" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="E565" t="n">
+        <v>264</v>
+      </c>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="n">
+        <v>1044065</v>
+      </c>
+      <c r="H565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2</v>
+      </c>
+      <c r="J565" t="n">
+        <v>19</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N565" t="n">
+        <v>8</v>
+      </c>
+      <c r="O565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B566" t="n">
+        <v>265</v>
+      </c>
+      <c r="C566" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="D566" t="n">
+        <v>261.3999938964844</v>
+      </c>
+      <c r="E566" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="n">
+        <v>442060</v>
+      </c>
+      <c r="H566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2</v>
+      </c>
+      <c r="J566" t="n">
+        <v>20</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N566" t="n">
+        <v>8</v>
+      </c>
+      <c r="O566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B567" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="C567" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="D567" t="n">
+        <v>259.5499877929688</v>
+      </c>
+      <c r="E567" t="n">
+        <v>262.2999877929688</v>
+      </c>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="n">
+        <v>532174</v>
+      </c>
+      <c r="H567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2</v>
+      </c>
+      <c r="J567" t="n">
+        <v>21</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N567" t="n">
+        <v>8</v>
+      </c>
+      <c r="O567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R567" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R567"/>
+  <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31895,7 +31895,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
-      <c r="R563" t="inlineStr"/>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -31947,7 +31949,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
-      <c r="R564" t="inlineStr"/>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -31999,7 +32003,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
-      <c r="R565" t="inlineStr"/>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -32051,7 +32057,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
-      <c r="R566" t="inlineStr"/>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -32103,7 +32111,477 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
-      <c r="R567" t="inlineStr"/>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B568" t="n">
+        <v>258</v>
+      </c>
+      <c r="C568" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="D568" t="n">
+        <v>250.1999969482422</v>
+      </c>
+      <c r="E568" t="n">
+        <v>259.0499877929688</v>
+      </c>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="n">
+        <v>380406</v>
+      </c>
+      <c r="H568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2</v>
+      </c>
+      <c r="J568" t="n">
+        <v>24</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N568" t="n">
+        <v>9</v>
+      </c>
+      <c r="O568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B569" t="n">
+        <v>258</v>
+      </c>
+      <c r="C569" t="n">
+        <v>262.6499938964844</v>
+      </c>
+      <c r="D569" t="n">
+        <v>252</v>
+      </c>
+      <c r="E569" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="n">
+        <v>192861</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2</v>
+      </c>
+      <c r="J569" t="n">
+        <v>25</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N569" t="n">
+        <v>9</v>
+      </c>
+      <c r="O569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B570" t="n">
+        <v>257.8500061035156</v>
+      </c>
+      <c r="C570" t="n">
+        <v>257.8500061035156</v>
+      </c>
+      <c r="D570" t="n">
+        <v>243.75</v>
+      </c>
+      <c r="E570" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="n">
+        <v>262806</v>
+      </c>
+      <c r="H570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2</v>
+      </c>
+      <c r="J570" t="n">
+        <v>27</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N570" t="n">
+        <v>9</v>
+      </c>
+      <c r="O570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B571" t="n">
+        <v>241.1000061035156</v>
+      </c>
+      <c r="C571" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="D571" t="n">
+        <v>230</v>
+      </c>
+      <c r="E571" t="n">
+        <v>232.1999969482422</v>
+      </c>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="n">
+        <v>672036</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2</v>
+      </c>
+      <c r="J571" t="n">
+        <v>28</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N571" t="n">
+        <v>9</v>
+      </c>
+      <c r="O571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B572" t="n">
+        <v>234</v>
+      </c>
+      <c r="C572" t="n">
+        <v>238.3000030517578</v>
+      </c>
+      <c r="D572" t="n">
+        <v>214</v>
+      </c>
+      <c r="E572" t="n">
+        <v>226</v>
+      </c>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="n">
+        <v>808232</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3</v>
+      </c>
+      <c r="J572" t="n">
+        <v>3</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N572" t="n">
+        <v>10</v>
+      </c>
+      <c r="O572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B573" t="n">
+        <v>224</v>
+      </c>
+      <c r="C573" t="n">
+        <v>240.0099945068359</v>
+      </c>
+      <c r="D573" t="n">
+        <v>222</v>
+      </c>
+      <c r="E573" t="n">
+        <v>234.1199951171875</v>
+      </c>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="n">
+        <v>748108</v>
+      </c>
+      <c r="H573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3</v>
+      </c>
+      <c r="J573" t="n">
+        <v>4</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N573" t="n">
+        <v>10</v>
+      </c>
+      <c r="O573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B574" t="n">
+        <v>234.7899932861328</v>
+      </c>
+      <c r="C574" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="D574" t="n">
+        <v>234.7899932861328</v>
+      </c>
+      <c r="E574" t="n">
+        <v>240.6900024414062</v>
+      </c>
+      <c r="F574" t="inlineStr"/>
+      <c r="G574" t="n">
+        <v>620359</v>
+      </c>
+      <c r="H574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3</v>
+      </c>
+      <c r="J574" t="n">
+        <v>5</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N574" t="n">
+        <v>10</v>
+      </c>
+      <c r="O574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B575" t="n">
+        <v>245</v>
+      </c>
+      <c r="C575" t="n">
+        <v>254.3699951171875</v>
+      </c>
+      <c r="D575" t="n">
+        <v>244.0200042724609</v>
+      </c>
+      <c r="E575" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="n">
+        <v>678320</v>
+      </c>
+      <c r="H575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3</v>
+      </c>
+      <c r="J575" t="n">
+        <v>6</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N575" t="n">
+        <v>10</v>
+      </c>
+      <c r="O575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B576" t="n">
+        <v>251</v>
+      </c>
+      <c r="C576" t="n">
+        <v>256.8200073242188</v>
+      </c>
+      <c r="D576" t="n">
+        <v>243.2599945068359</v>
+      </c>
+      <c r="E576" t="n">
+        <v>246.8300018310547</v>
+      </c>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="n">
+        <v>627473</v>
+      </c>
+      <c r="H576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3</v>
+      </c>
+      <c r="J576" t="n">
+        <v>7</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N576" t="n">
+        <v>10</v>
+      </c>
+      <c r="O576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R576" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R576"/>
+  <dimension ref="A1:R585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32165,7 +32165,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
-      <c r="R568" t="inlineStr"/>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -32217,7 +32219,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
-      <c r="R569" t="inlineStr"/>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -32269,7 +32273,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
-      <c r="R570" t="inlineStr"/>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -32321,7 +32327,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
-      <c r="R571" t="inlineStr"/>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -32365,7 +32373,7 @@
         <v>10</v>
       </c>
       <c r="O572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P572" t="n">
         <v>0</v>
@@ -32373,7 +32381,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
-      <c r="R572" t="inlineStr"/>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -32425,7 +32435,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
-      <c r="R573" t="inlineStr"/>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -32477,7 +32489,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
-      <c r="R574" t="inlineStr"/>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -32529,7 +32543,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
-      <c r="R575" t="inlineStr"/>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -32581,7 +32597,477 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
-      <c r="R576" t="inlineStr"/>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B577" t="n">
+        <v>248.6499938964844</v>
+      </c>
+      <c r="C577" t="n">
+        <v>252</v>
+      </c>
+      <c r="D577" t="n">
+        <v>230.1000061035156</v>
+      </c>
+      <c r="E577" t="n">
+        <v>233.8899993896484</v>
+      </c>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="n">
+        <v>544705</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3</v>
+      </c>
+      <c r="J577" t="n">
+        <v>10</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N577" t="n">
+        <v>11</v>
+      </c>
+      <c r="O577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B578" t="n">
+        <v>232.3800048828125</v>
+      </c>
+      <c r="C578" t="n">
+        <v>238</v>
+      </c>
+      <c r="D578" t="n">
+        <v>224.5200042724609</v>
+      </c>
+      <c r="E578" t="n">
+        <v>232.3300018310547</v>
+      </c>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="n">
+        <v>610755</v>
+      </c>
+      <c r="H578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3</v>
+      </c>
+      <c r="J578" t="n">
+        <v>11</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N578" t="n">
+        <v>11</v>
+      </c>
+      <c r="O578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B579" t="n">
+        <v>232.3300018310547</v>
+      </c>
+      <c r="C579" t="n">
+        <v>238.6999969482422</v>
+      </c>
+      <c r="D579" t="n">
+        <v>224.4100036621094</v>
+      </c>
+      <c r="E579" t="n">
+        <v>225.3800048828125</v>
+      </c>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="n">
+        <v>706193</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3</v>
+      </c>
+      <c r="J579" t="n">
+        <v>12</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N579" t="n">
+        <v>11</v>
+      </c>
+      <c r="O579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B580" t="n">
+        <v>227.3999938964844</v>
+      </c>
+      <c r="C580" t="n">
+        <v>235.9900054931641</v>
+      </c>
+      <c r="D580" t="n">
+        <v>223</v>
+      </c>
+      <c r="E580" t="n">
+        <v>225.9700012207031</v>
+      </c>
+      <c r="F580" t="inlineStr"/>
+      <c r="G580" t="n">
+        <v>679091</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3</v>
+      </c>
+      <c r="J580" t="n">
+        <v>13</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N580" t="n">
+        <v>11</v>
+      </c>
+      <c r="O580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B581" t="n">
+        <v>227.9900054931641</v>
+      </c>
+      <c r="C581" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="D581" t="n">
+        <v>218</v>
+      </c>
+      <c r="E581" t="n">
+        <v>219.2100067138672</v>
+      </c>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="n">
+        <v>495401</v>
+      </c>
+      <c r="H581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3</v>
+      </c>
+      <c r="J581" t="n">
+        <v>17</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N581" t="n">
+        <v>12</v>
+      </c>
+      <c r="O581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B582" t="n">
+        <v>219.2100067138672</v>
+      </c>
+      <c r="C582" t="n">
+        <v>219.2100067138672</v>
+      </c>
+      <c r="D582" t="n">
+        <v>219.2100067138672</v>
+      </c>
+      <c r="E582" t="n">
+        <v>219.2100067138672</v>
+      </c>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="n">
+        <v>0</v>
+      </c>
+      <c r="H582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3</v>
+      </c>
+      <c r="J582" t="n">
+        <v>18</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N582" t="n">
+        <v>12</v>
+      </c>
+      <c r="O582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B583" t="n">
+        <v>228.0099945068359</v>
+      </c>
+      <c r="C583" t="n">
+        <v>241.6999969482422</v>
+      </c>
+      <c r="D583" t="n">
+        <v>228.0099945068359</v>
+      </c>
+      <c r="E583" t="n">
+        <v>239.2700042724609</v>
+      </c>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="n">
+        <v>959070</v>
+      </c>
+      <c r="H583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3</v>
+      </c>
+      <c r="J583" t="n">
+        <v>19</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N583" t="n">
+        <v>12</v>
+      </c>
+      <c r="O583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>1</v>
+      </c>
+      <c r="R583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B584" t="n">
+        <v>243</v>
+      </c>
+      <c r="C584" t="n">
+        <v>246.1999969482422</v>
+      </c>
+      <c r="D584" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="E584" t="n">
+        <v>239.3300018310547</v>
+      </c>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="n">
+        <v>847007</v>
+      </c>
+      <c r="H584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3</v>
+      </c>
+      <c r="J584" t="n">
+        <v>20</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N584" t="n">
+        <v>12</v>
+      </c>
+      <c r="O584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B585" t="n">
+        <v>243.3999938964844</v>
+      </c>
+      <c r="C585" t="n">
+        <v>255.6000061035156</v>
+      </c>
+      <c r="D585" t="n">
+        <v>238.6100006103516</v>
+      </c>
+      <c r="E585" t="n">
+        <v>243.8899993896484</v>
+      </c>
+      <c r="F585" t="inlineStr"/>
+      <c r="G585" t="n">
+        <v>1140602</v>
+      </c>
+      <c r="H585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3</v>
+      </c>
+      <c r="J585" t="n">
+        <v>21</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N585" t="n">
+        <v>12</v>
+      </c>
+      <c r="O585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R585" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R585"/>
+  <dimension ref="A1:R594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32651,7 +32651,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
-      <c r="R577" t="inlineStr"/>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -32703,7 +32705,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
-      <c r="R578" t="inlineStr"/>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -32755,7 +32759,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
-      <c r="R579" t="inlineStr"/>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -32807,7 +32813,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
-      <c r="R580" t="inlineStr"/>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -32859,7 +32867,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
-      <c r="R581" t="inlineStr"/>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -32911,7 +32921,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
-      <c r="R582" t="inlineStr"/>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -32963,7 +32975,9 @@
       <c r="Q583" t="n">
         <v>1</v>
       </c>
-      <c r="R583" t="inlineStr"/>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -33015,7 +33029,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
-      <c r="R584" t="inlineStr"/>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -33067,7 +33083,477 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
-      <c r="R585" t="inlineStr"/>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B586" t="n">
+        <v>247.9900054931641</v>
+      </c>
+      <c r="C586" t="n">
+        <v>258.260009765625</v>
+      </c>
+      <c r="D586" t="n">
+        <v>245</v>
+      </c>
+      <c r="E586" t="n">
+        <v>246.0200042724609</v>
+      </c>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="n">
+        <v>1483177</v>
+      </c>
+      <c r="H586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3</v>
+      </c>
+      <c r="J586" t="n">
+        <v>24</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N586" t="n">
+        <v>13</v>
+      </c>
+      <c r="O586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B587" t="n">
+        <v>248</v>
+      </c>
+      <c r="C587" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="D587" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="E587" t="n">
+        <v>236.1100006103516</v>
+      </c>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="n">
+        <v>909840</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I587" t="n">
+        <v>3</v>
+      </c>
+      <c r="J587" t="n">
+        <v>25</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N587" t="n">
+        <v>13</v>
+      </c>
+      <c r="O587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B588" t="n">
+        <v>237.6499938964844</v>
+      </c>
+      <c r="C588" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="D588" t="n">
+        <v>229</v>
+      </c>
+      <c r="E588" t="n">
+        <v>230.2700042724609</v>
+      </c>
+      <c r="F588" t="inlineStr"/>
+      <c r="G588" t="n">
+        <v>974583</v>
+      </c>
+      <c r="H588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3</v>
+      </c>
+      <c r="J588" t="n">
+        <v>26</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N588" t="n">
+        <v>13</v>
+      </c>
+      <c r="O588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B589" t="n">
+        <v>231</v>
+      </c>
+      <c r="C589" t="n">
+        <v>234.9900054931641</v>
+      </c>
+      <c r="D589" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E589" t="n">
+        <v>228.7400054931641</v>
+      </c>
+      <c r="F589" t="inlineStr"/>
+      <c r="G589" t="n">
+        <v>1198491</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3</v>
+      </c>
+      <c r="J589" t="n">
+        <v>27</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N589" t="n">
+        <v>13</v>
+      </c>
+      <c r="O589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B590" t="n">
+        <v>231</v>
+      </c>
+      <c r="C590" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="D590" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E590" t="n">
+        <v>229.1900024414062</v>
+      </c>
+      <c r="F590" t="inlineStr"/>
+      <c r="G590" t="n">
+        <v>908995</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I590" t="n">
+        <v>3</v>
+      </c>
+      <c r="J590" t="n">
+        <v>28</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N590" t="n">
+        <v>13</v>
+      </c>
+      <c r="O590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B591" t="n">
+        <v>229.1999969482422</v>
+      </c>
+      <c r="C591" t="n">
+        <v>244.5899963378906</v>
+      </c>
+      <c r="D591" t="n">
+        <v>229.1999969482422</v>
+      </c>
+      <c r="E591" t="n">
+        <v>240.0899963378906</v>
+      </c>
+      <c r="F591" t="inlineStr"/>
+      <c r="G591" t="n">
+        <v>1060671</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I591" t="n">
+        <v>4</v>
+      </c>
+      <c r="J591" t="n">
+        <v>1</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N591" t="n">
+        <v>14</v>
+      </c>
+      <c r="O591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B592" t="n">
+        <v>242.6900024414062</v>
+      </c>
+      <c r="C592" t="n">
+        <v>242.6900024414062</v>
+      </c>
+      <c r="D592" t="n">
+        <v>232.1000061035156</v>
+      </c>
+      <c r="E592" t="n">
+        <v>239.2299957275391</v>
+      </c>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="n">
+        <v>441410</v>
+      </c>
+      <c r="H592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I592" t="n">
+        <v>4</v>
+      </c>
+      <c r="J592" t="n">
+        <v>2</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N592" t="n">
+        <v>14</v>
+      </c>
+      <c r="O592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B593" t="n">
+        <v>238</v>
+      </c>
+      <c r="C593" t="n">
+        <v>246.6999969482422</v>
+      </c>
+      <c r="D593" t="n">
+        <v>236.0099945068359</v>
+      </c>
+      <c r="E593" t="n">
+        <v>243.8800048828125</v>
+      </c>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="n">
+        <v>681185</v>
+      </c>
+      <c r="H593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I593" t="n">
+        <v>4</v>
+      </c>
+      <c r="J593" t="n">
+        <v>3</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N593" t="n">
+        <v>14</v>
+      </c>
+      <c r="O593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B594" t="n">
+        <v>243.8500061035156</v>
+      </c>
+      <c r="C594" t="n">
+        <v>243.8600006103516</v>
+      </c>
+      <c r="D594" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="E594" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="n">
+        <v>756495</v>
+      </c>
+      <c r="H594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I594" t="n">
+        <v>4</v>
+      </c>
+      <c r="J594" t="n">
+        <v>4</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N594" t="n">
+        <v>14</v>
+      </c>
+      <c r="O594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R594" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R594"/>
+  <dimension ref="A1:R598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33129,7 +33129,7 @@
         <v>13</v>
       </c>
       <c r="O586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P586" t="n">
         <v>0</v>
@@ -33137,7 +33137,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
-      <c r="R586" t="inlineStr"/>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -33189,7 +33191,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
-      <c r="R587" t="inlineStr"/>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -33241,7 +33245,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
-      <c r="R588" t="inlineStr"/>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -33293,7 +33299,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
-      <c r="R589" t="inlineStr"/>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -33345,7 +33353,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
-      <c r="R590" t="inlineStr"/>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -33397,7 +33407,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
-      <c r="R591" t="inlineStr"/>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -33449,7 +33461,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
-      <c r="R592" t="inlineStr"/>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -33501,7 +33515,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
-      <c r="R593" t="inlineStr"/>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -33553,7 +33569,217 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
-      <c r="R594" t="inlineStr"/>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B595" t="n">
+        <v>200.1000061035156</v>
+      </c>
+      <c r="C595" t="n">
+        <v>219.4499969482422</v>
+      </c>
+      <c r="D595" t="n">
+        <v>200.1000061035156</v>
+      </c>
+      <c r="E595" t="n">
+        <v>217.1199951171875</v>
+      </c>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="n">
+        <v>991252</v>
+      </c>
+      <c r="H595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I595" t="n">
+        <v>4</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N595" t="n">
+        <v>15</v>
+      </c>
+      <c r="O595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B596" t="n">
+        <v>225.9799957275391</v>
+      </c>
+      <c r="C596" t="n">
+        <v>228</v>
+      </c>
+      <c r="D596" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="E596" t="n">
+        <v>226.2599945068359</v>
+      </c>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="n">
+        <v>657096</v>
+      </c>
+      <c r="H596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I596" t="n">
+        <v>4</v>
+      </c>
+      <c r="J596" t="n">
+        <v>8</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N596" t="n">
+        <v>15</v>
+      </c>
+      <c r="O596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B597" t="n">
+        <v>225.4499969482422</v>
+      </c>
+      <c r="C597" t="n">
+        <v>227.6999969482422</v>
+      </c>
+      <c r="D597" t="n">
+        <v>220.1100006103516</v>
+      </c>
+      <c r="E597" t="n">
+        <v>223.3300018310547</v>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="n">
+        <v>228963</v>
+      </c>
+      <c r="H597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I597" t="n">
+        <v>4</v>
+      </c>
+      <c r="J597" t="n">
+        <v>9</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N597" t="n">
+        <v>15</v>
+      </c>
+      <c r="O597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B598" t="n">
+        <v>233</v>
+      </c>
+      <c r="C598" t="n">
+        <v>233.8999938964844</v>
+      </c>
+      <c r="D598" t="n">
+        <v>227.1399993896484</v>
+      </c>
+      <c r="E598" t="n">
+        <v>229.3800048828125</v>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="n">
+        <v>294054</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I598" t="n">
+        <v>4</v>
+      </c>
+      <c r="J598" t="n">
+        <v>11</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N598" t="n">
+        <v>15</v>
+      </c>
+      <c r="O598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R598" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R598"/>
+  <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33623,7 +33623,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
-      <c r="R595" t="inlineStr"/>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -33675,7 +33677,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
-      <c r="R596" t="inlineStr"/>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -33727,7 +33731,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
-      <c r="R597" t="inlineStr"/>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -33779,7 +33785,165 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
-      <c r="R598" t="inlineStr"/>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B599" t="n">
+        <v>234</v>
+      </c>
+      <c r="C599" t="n">
+        <v>242.3000030517578</v>
+      </c>
+      <c r="D599" t="n">
+        <v>232.3500061035156</v>
+      </c>
+      <c r="E599" t="n">
+        <v>239.2100067138672</v>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="n">
+        <v>447867</v>
+      </c>
+      <c r="H599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I599" t="n">
+        <v>4</v>
+      </c>
+      <c r="J599" t="n">
+        <v>15</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N599" t="n">
+        <v>16</v>
+      </c>
+      <c r="O599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B600" t="n">
+        <v>240.3000030517578</v>
+      </c>
+      <c r="C600" t="n">
+        <v>245.8999938964844</v>
+      </c>
+      <c r="D600" t="n">
+        <v>237.6999969482422</v>
+      </c>
+      <c r="E600" t="n">
+        <v>244.1300048828125</v>
+      </c>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="n">
+        <v>547334</v>
+      </c>
+      <c r="H600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I600" t="n">
+        <v>4</v>
+      </c>
+      <c r="J600" t="n">
+        <v>16</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N600" t="n">
+        <v>16</v>
+      </c>
+      <c r="O600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B601" t="n">
+        <v>243.6799926757812</v>
+      </c>
+      <c r="C601" t="n">
+        <v>250.9900054931641</v>
+      </c>
+      <c r="D601" t="n">
+        <v>240.0099945068359</v>
+      </c>
+      <c r="E601" t="n">
+        <v>247.4100036621094</v>
+      </c>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="n">
+        <v>587834</v>
+      </c>
+      <c r="H601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I601" t="n">
+        <v>4</v>
+      </c>
+      <c r="J601" t="n">
+        <v>17</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N601" t="n">
+        <v>16</v>
+      </c>
+      <c r="O601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R601" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R601"/>
+  <dimension ref="A1:R610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33615,7 +33615,7 @@
         <v>15</v>
       </c>
       <c r="O595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P595" t="n">
         <v>0</v>
@@ -33839,7 +33839,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
-      <c r="R599" t="inlineStr"/>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -33891,7 +33893,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
-      <c r="R600" t="inlineStr"/>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -33943,7 +33947,477 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
-      <c r="R601" t="inlineStr"/>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B602" t="n">
+        <v>251</v>
+      </c>
+      <c r="C602" t="n">
+        <v>279.7000122070312</v>
+      </c>
+      <c r="D602" t="n">
+        <v>245.4100036621094</v>
+      </c>
+      <c r="E602" t="n">
+        <v>273.8399963378906</v>
+      </c>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="n">
+        <v>2346605</v>
+      </c>
+      <c r="H602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I602" t="n">
+        <v>4</v>
+      </c>
+      <c r="J602" t="n">
+        <v>21</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N602" t="n">
+        <v>17</v>
+      </c>
+      <c r="O602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B603" t="n">
+        <v>278.489990234375</v>
+      </c>
+      <c r="C603" t="n">
+        <v>281.989990234375</v>
+      </c>
+      <c r="D603" t="n">
+        <v>268</v>
+      </c>
+      <c r="E603" t="n">
+        <v>270.9200134277344</v>
+      </c>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="n">
+        <v>1115346</v>
+      </c>
+      <c r="H603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I603" t="n">
+        <v>4</v>
+      </c>
+      <c r="J603" t="n">
+        <v>22</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N603" t="n">
+        <v>17</v>
+      </c>
+      <c r="O603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B604" t="n">
+        <v>272</v>
+      </c>
+      <c r="C604" t="n">
+        <v>295.7200012207031</v>
+      </c>
+      <c r="D604" t="n">
+        <v>269.1000061035156</v>
+      </c>
+      <c r="E604" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="n">
+        <v>3379139</v>
+      </c>
+      <c r="H604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I604" t="n">
+        <v>4</v>
+      </c>
+      <c r="J604" t="n">
+        <v>23</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N604" t="n">
+        <v>17</v>
+      </c>
+      <c r="O604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B605" t="n">
+        <v>291</v>
+      </c>
+      <c r="C605" t="n">
+        <v>295</v>
+      </c>
+      <c r="D605" t="n">
+        <v>287.9200134277344</v>
+      </c>
+      <c r="E605" t="n">
+        <v>289.6499938964844</v>
+      </c>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="n">
+        <v>738291</v>
+      </c>
+      <c r="H605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I605" t="n">
+        <v>4</v>
+      </c>
+      <c r="J605" t="n">
+        <v>24</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N605" t="n">
+        <v>17</v>
+      </c>
+      <c r="O605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B606" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="C606" t="n">
+        <v>291.4500122070312</v>
+      </c>
+      <c r="D606" t="n">
+        <v>268.7799987792969</v>
+      </c>
+      <c r="E606" t="n">
+        <v>273.510009765625</v>
+      </c>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="n">
+        <v>1123526</v>
+      </c>
+      <c r="H606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I606" t="n">
+        <v>4</v>
+      </c>
+      <c r="J606" t="n">
+        <v>25</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N606" t="n">
+        <v>17</v>
+      </c>
+      <c r="O606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B607" t="n">
+        <v>273</v>
+      </c>
+      <c r="C607" t="n">
+        <v>284.2699890136719</v>
+      </c>
+      <c r="D607" t="n">
+        <v>269.75</v>
+      </c>
+      <c r="E607" t="n">
+        <v>281.6400146484375</v>
+      </c>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="n">
+        <v>602767</v>
+      </c>
+      <c r="H607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I607" t="n">
+        <v>4</v>
+      </c>
+      <c r="J607" t="n">
+        <v>28</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N607" t="n">
+        <v>18</v>
+      </c>
+      <c r="O607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B608" t="n">
+        <v>283.3999938964844</v>
+      </c>
+      <c r="C608" t="n">
+        <v>300.8999938964844</v>
+      </c>
+      <c r="D608" t="n">
+        <v>283.1900024414062</v>
+      </c>
+      <c r="E608" t="n">
+        <v>298.1400146484375</v>
+      </c>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="n">
+        <v>1913274</v>
+      </c>
+      <c r="H608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I608" t="n">
+        <v>4</v>
+      </c>
+      <c r="J608" t="n">
+        <v>29</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N608" t="n">
+        <v>18</v>
+      </c>
+      <c r="O608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B609" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="C609" t="n">
+        <v>302.2000122070312</v>
+      </c>
+      <c r="D609" t="n">
+        <v>280</v>
+      </c>
+      <c r="E609" t="n">
+        <v>283.8500061035156</v>
+      </c>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="n">
+        <v>1183572</v>
+      </c>
+      <c r="H609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I609" t="n">
+        <v>4</v>
+      </c>
+      <c r="J609" t="n">
+        <v>30</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N609" t="n">
+        <v>18</v>
+      </c>
+      <c r="O609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B610" t="n">
+        <v>285</v>
+      </c>
+      <c r="C610" t="n">
+        <v>289.1499938964844</v>
+      </c>
+      <c r="D610" t="n">
+        <v>280.1000061035156</v>
+      </c>
+      <c r="E610" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="n">
+        <v>574267</v>
+      </c>
+      <c r="H610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5</v>
+      </c>
+      <c r="J610" t="n">
+        <v>2</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N610" t="n">
+        <v>18</v>
+      </c>
+      <c r="O610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R610" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DCXINDIA.NS.xlsx
+++ b/stock_historical_data/1d/DCXINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R610"/>
+  <dimension ref="A1:R620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34001,7 +34001,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
-      <c r="R602" t="inlineStr"/>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -34053,7 +34055,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
-      <c r="R603" t="inlineStr"/>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -34105,7 +34109,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
-      <c r="R604" t="inlineStr"/>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -34157,7 +34163,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
-      <c r="R605" t="inlineStr"/>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -34209,7 +34217,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
-      <c r="R606" t="inlineStr"/>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -34261,7 +34271,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
-      <c r="R607" t="inlineStr"/>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -34313,7 +34325,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
-      <c r="R608" t="inlineStr"/>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -34365,7 +34379,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
-      <c r="R609" t="inlineStr"/>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -34417,7 +34433,529 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
-      <c r="R610" t="inlineStr"/>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B611" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="C611" t="n">
+        <v>291</v>
+      </c>
+      <c r="D611" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E611" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="n">
+        <v>482874</v>
+      </c>
+      <c r="H611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5</v>
+      </c>
+      <c r="J611" t="n">
+        <v>5</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N611" t="n">
+        <v>19</v>
+      </c>
+      <c r="O611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B612" t="n">
+        <v>290</v>
+      </c>
+      <c r="C612" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="D612" t="n">
+        <v>268.6499938964844</v>
+      </c>
+      <c r="E612" t="n">
+        <v>270.2999877929688</v>
+      </c>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="n">
+        <v>650015</v>
+      </c>
+      <c r="H612" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I612" t="n">
+        <v>5</v>
+      </c>
+      <c r="J612" t="n">
+        <v>6</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" t="n">
+        <v>19</v>
+      </c>
+      <c r="O612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B613" t="n">
+        <v>270</v>
+      </c>
+      <c r="C613" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="D613" t="n">
+        <v>268</v>
+      </c>
+      <c r="E613" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="n">
+        <v>709627</v>
+      </c>
+      <c r="H613" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I613" t="n">
+        <v>5</v>
+      </c>
+      <c r="J613" t="n">
+        <v>7</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" t="n">
+        <v>19</v>
+      </c>
+      <c r="O613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B614" t="n">
+        <v>285</v>
+      </c>
+      <c r="C614" t="n">
+        <v>286.3999938964844</v>
+      </c>
+      <c r="D614" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E614" t="n">
+        <v>270</v>
+      </c>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="n">
+        <v>466127</v>
+      </c>
+      <c r="H614" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5</v>
+      </c>
+      <c r="J614" t="n">
+        <v>8</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" t="n">
+        <v>19</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B615" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="C615" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="D615" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="E615" t="n">
+        <v>292.6499938964844</v>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="n">
+        <v>2540940</v>
+      </c>
+      <c r="H615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I615" t="n">
+        <v>5</v>
+      </c>
+      <c r="J615" t="n">
+        <v>9</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>19</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B616" t="n">
+        <v>301.7999877929688</v>
+      </c>
+      <c r="C616" t="n">
+        <v>307.4500122070312</v>
+      </c>
+      <c r="D616" t="n">
+        <v>293</v>
+      </c>
+      <c r="E616" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="n">
+        <v>1137162</v>
+      </c>
+      <c r="H616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I616" t="n">
+        <v>5</v>
+      </c>
+      <c r="J616" t="n">
+        <v>12</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" t="n">
+        <v>20</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B617" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="C617" t="n">
+        <v>309</v>
+      </c>
+      <c r="D617" t="n">
+        <v>299.0499877929688</v>
+      </c>
+      <c r="E617" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="n">
+        <v>1408411</v>
+      </c>
+      <c r="H617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I617" t="n">
+        <v>5</v>
+      </c>
+      <c r="J617" t="n">
+        <v>13</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" t="n">
+        <v>20</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B618" t="n">
+        <v>309.8500061035156</v>
+      </c>
+      <c r="C618" t="n">
+        <v>331</v>
+      </c>
+      <c r="D618" t="n">
+        <v>309.2999877929688</v>
+      </c>
+      <c r="E618" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="n">
+        <v>2888611</v>
+      </c>
+      <c r="H618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I618" t="n">
+        <v>5</v>
+      </c>
+      <c r="J618" t="n">
+        <v>14</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N618" t="n">
+        <v>20</v>
+      </c>
+      <c r="O618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B619" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="C619" t="n">
+        <v>335</v>
+      </c>
+      <c r="D619" t="n">
+        <v>324.3500061035156</v>
+      </c>
+      <c r="E619" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="n">
+        <v>1514974</v>
+      </c>
+      <c r="H619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I619" t="n">
+        <v>5</v>
+      </c>
+      <c r="J619" t="n">
+        <v>15</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" t="n">
+        <v>20</v>
+      </c>
+      <c r="O619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B620" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="C620" t="n">
+        <v>355</v>
+      </c>
+      <c r="D620" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="E620" t="n">
+        <v>347.7000122070312</v>
+      </c>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="n">
+        <v>3340719</v>
+      </c>
+      <c r="H620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I620" t="n">
+        <v>5</v>
+      </c>
+      <c r="J620" t="n">
+        <v>16</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N620" t="n">
+        <v>20</v>
+      </c>
+      <c r="O620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
